--- a/nhatot_phongtro_danang_all.xlsx
+++ b/nhatot_phongtro_danang_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phòng có ban công thoáng mát - Ngay cầu Rồng siêu tiện nghi</t>
+          <t>cho thuê phòng trọ gia đình</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -525,34 +525,34 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128544746.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128501768.htm</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cho thuê phòng trọ gia đình</t>
+          <t>cho thuê phòng full nội thất cao cấp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>7,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -569,29 +569,29 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128501768.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128581505.htm</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cho thuê phòng giường tầng phòng dorm</t>
+          <t>CHO THUÊ PHÒNG GẦN ĐH KINH TẾ ĐÀ NẴNG - Đ.Bà Huyện Thanh Quan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -609,38 +609,38 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128128560.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128557590.htm</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MỚI XÂY THOÁNG MÁT, BAN CÔNG GẦN ĐH FPT</t>
+          <t>Phòng trọ hk bắc giá rẻ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3,1 triệu/tháng</t>
+          <t>1 triệu/tháng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -657,73 +657,73 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128543234.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128581332.htm</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>phòng mới nội thất đầy đủ gần trường học cấp 1 chợ bv 600 gường</t>
+          <t>Phòng trọ đủ tiện nghi khu công nghệ cao</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3,3 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>32 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128144367.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128578263.htm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cho thuê Căn hộ mini 30m2 có 1 phòng ngủ riêng</t>
+          <t>Cho thuê phòng trọ nữ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2,1 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -745,19 +745,19 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128296377.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128576727.htm</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>💥💥💥💥💥Còn trống 1 phòng ***</t>
+          <t>🏡 PHÒNG GIÁ SINH VIÊN – NGUYỄN NHƯ HẠNH, LIÊN CHIỂU 🏡</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -767,41 +767,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128498042.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128575887.htm</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>kím bạn nữ ở ghép</t>
+          <t>Cho thuê phòng điều hoà ở 3 đến 4 người</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1,3 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -833,38 +833,38 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128537507.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128109356.htm</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cho thuê  phòng gần bến xe sư phạm , FPT , duy tân ,</t>
+          <t>🔥 NÚI THÀNH TRỐNG SẴN CĂN GÁC LỬNG 🔥</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -873,33 +873,33 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128536049.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128568689.htm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tôi cần bán dãy trọ 139m2 ngang 6m Nguyễn Lương Bằng sát ĐH Bách Khoa</t>
+          <t>CHO THUÊ CĂN HỘ MỚI XÂY 100% - SỐ 17 CỒN DẦU 19 - HÒA XUÂN - CẨM LỆ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3,5 tỷ/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>139 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -921,34 +921,34 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128059310.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128248490.htm</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Phòng trọ mặt tièn</t>
+          <t>Cho thuê căn hộ studio đường Trần Nhật Duật</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>5,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -965,19 +965,19 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128535033.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128564714.htm</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phòng trọ gác lửng mới hoàn toàn, Gần DH Bách Khoa, Sư Phạm</t>
+          <t>Phòng trọ ở Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1009,29 +1009,29 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127964619.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128564248.htm</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
+          <t>phòng mới nội thất đầy đủ gần trường học cấp 1 chợ bv 600 gường</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>32 m²</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1053,24 +1053,24 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128523320.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128144367.htm</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phòng Full Nội Thất Khu FPT - Ngũ Hành Sơn</t>
+          <t>💥💥💥💥💥Còn trống 1 phòng ***</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1084,76 +1084,76 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128025078.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128498042.htm</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GIÁ CHƯA TỚI 3TR NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
+          <t>Phòng trọ 3 sao mới xây tiện nghi,đầy đủ thiết bị Nguyễn Duy Trinh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128520533.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127566741.htm</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT ĐỐI DIỆN ĐẠI HỌC FPT ĐI BỘ 3 PHÚT</t>
+          <t>Nhượng lại phòng trọ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1185,19 +1185,19 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128174992.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128559019.htm</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MỚI 100% GẦN ĐẠI HỌC ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
+          <t>🌿 PHÒNG GIÁ SIÊU RẺ - FULL NỘI THẤT – ĐƯỜNG HÒA PHÚ 29, LIÊN CHIỂU 🌿</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4,1 triệu/tháng</t>
+          <t>6,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1216,42 +1216,42 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128174964.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128555922.htm</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>🚀 STUDIO RẺ NHẤT KHU HOÀ XUÂN – CHỈ 4.3 TRIỆU! 🌟</t>
+          <t>Căn hộ Nguyễn Thị Định cho thuê</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1273,29 +1273,29 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128519749.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128555766.htm</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐƯỜNG MINH MẠNG, CẦU TRUNG LƯƠNG</t>
+          <t>Phòng có ban công thoáng mát - Ngay cầu Rồng siêu tiện nghi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3,7 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1317,29 +1317,29 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128519512.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128544746.htm</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Căn hộ dịch vụ mini apartment Hòa Xuân Cẩm Lệ</t>
+          <t>Cho thuê phòng giường tầng phòng dorm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>1 triệu/tháng</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1357,23 +1357,23 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/122592431.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128128560.htm</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>căn duplex gần ĐH FPT, FPT Plaaza 1,2,3, việt hàn</t>
+          <t>PHÒNG TRỌ MỚI XÂY THOÁNG MÁT, BAN CÔNG GẦN ĐH FPT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>3,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1405,68 +1405,68 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/123621254.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128543234.htm</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cho thuê giường dorm</t>
+          <t>Cho thuê Căn hộ mini 30m2 có 1 phòng ngủ riêng</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>2,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>38 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126893939.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128296377.htm</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phòng tầng 1 có bếp riêng, phòng ngủ riêng.</t>
+          <t>kím bạn nữ ở ghép</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5,2 triệu/tháng</t>
+          <t>1,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1489,33 +1489,33 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128350810.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128537507.htm</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cho thuê Phòng trọ gần bến xe, đầy đủ tiện nghi như căn hộ mini</t>
+          <t>Tôi cần bán dãy trọ 139m2 ngang 6m Nguyễn Lương Bằng sát ĐH Bách Khoa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>3,5 tỷ/tháng</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>139 m²</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1533,28 +1533,28 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128511955.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128059310.htm</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ mới xây - Cồn Dầu 19, Hoà Xuân</t>
+          <t>Phòng trọ mặt tièn</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>26 m²</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1564,11 +1564,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1581,34 +1581,34 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128492279.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128535033.htm</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phòng trọ tiện nghi, trung tâm Ngũ Hành Sơn</t>
+          <t>Phòng trọ gác lửng mới hoàn toàn, Gần DH Bách Khoa, Sư Phạm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1618,36 +1618,36 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128189660.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127964619.htm</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Phòng trọ làng đại học Đà Nẵng - khu FPT, ngay sát đường Trần Hưng Đạo</t>
+          <t>CHO THUÊ PHÒNG TRỌ NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2,7 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1665,33 +1665,33 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127807785.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128523320.htm</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cho thuê phòng gác lửng đầy đủ nội thất gần Cầu vượt Ngã Ba Huế</t>
+          <t>Phòng Full Nội Thất Khu FPT - Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1713,34 +1713,34 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128507241.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128025078.htm</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đủ nội thất gần Đại học FPT, giá sinh viên</t>
+          <t>GIÁ CHƯA TỚI 3TR NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1753,23 +1753,23 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127354068.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128520533.htm</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>✅️KHAI TRƯƠNG TÒA CĂN HỘ MỚI XÂY,GẦN NGÃ 3 HUẾ, MẸ NHU,CÓ BAN CÔNG ✅️</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT ĐỐI DIỆN ĐẠI HỌC FPT ĐI BỘ 3 PHÚT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1779,51 +1779,51 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128504393.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128174992.htm</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cho thuê Căn hộ, phòng trọ từ 17 -25m</t>
+          <t>PHÒNG TRỌ MỚI 100% GẦN ĐẠI HỌC ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1845,63 +1845,63 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128341602.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128174964.htm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗙𝘂𝗹𝗹 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 𝟭𝟬𝟬% 𝗚𝗶𝗮́ 𝗧𝘂̛̀ 𝟮𝗧𝗿𝟯</t>
+          <t>🚀 STUDIO RẺ NHẤT KHU HOÀ XUÂN – CHỈ 4.3 TRIỆU! 🌟</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128498919.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128519749.htm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐƯỜNG MINH MẠNG, CẦU TRUNG LƯƠNG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>3,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1933,24 +1933,24 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128494623.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128519512.htm</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PHÒNG GÁC LỬNG CÓ BAN CÔNG HÒA XUÂN GIÁ CHỈ 4,3 TRIỆU</t>
+          <t>Căn hộ dịch vụ mini apartment Hòa Xuân Cẩm Lệ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1970,31 +1970,31 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128493015.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/122592431.htm</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>trọ khái tây 2 hoà quý</t>
+          <t>căn duplex gần ĐH FPT, FPT Plaaza 1,2,3, việt hàn</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2004,14 +2004,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2021,24 +2021,24 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128489193.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/123621254.htm</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN STUDIO - NGŨ HÀNH SƠN</t>
+          <t>Phòng tầng 1 có bếp riêng, phòng ngủ riêng.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6,2 triệu/tháng</t>
+          <t>5,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2058,36 +2058,36 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128488165.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128350810.htm</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Phòng trọ tại 8x Nguyễn Lộ Trạch, 4,5 triệu, 20m2, view đẹp</t>
+          <t>Cho thuê Phòng trọ gần bến xe, đầy đủ tiện nghi như căn hộ mini</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2109,14 +2109,14 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128485470.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128511955.htm</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PASS CĂN HỘ ĐƯỜNG TRƯƠNG QUANG GIAO-CẨM LỆ THÁNG 11 CÓ THỂ CHUYỂN VÀO</t>
+          <t>Cho thuê căn hộ mới xây - Cồn Dầu 19, Hoà Xuân</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2136,51 +2136,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128479841.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128492279.htm</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG GÁC LỬNG CÓ NỘI THẤT NGAY BẾN XE ĐẦY ĐỦ TIỆN NGHI</t>
+          <t>Phòng trọ tiện nghi, trung tâm Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2190,41 +2190,41 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128472157.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128189660.htm</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cho thuê căn gác lửng ngay ngã ba Huế</t>
+          <t>Phòng trọ làng đại học Đà Nẵng - khu FPT, ngay sát đường Trần Hưng Đạo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2241,19 +2241,19 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128470639.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127807785.htm</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tìm bạn ở ghép ( nam) ở lâu dài càng tốt</t>
+          <t>Cho thuê phòng gác lửng đầy đủ nội thất gần Cầu vượt Ngã Ba Huế</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1,25 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2263,12 +2263,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2278,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128470096.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128507241.htm</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>🌿 Phòng full nội thất khu FPT City – Ngũ Hành Sơn, Đà Nẵng 🌿</t>
+          <t>Cho thuê phòng đủ nội thất gần Đại học FPT, giá sinh viên</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2312,11 +2312,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2329,58 +2329,58 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128469665.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127354068.htm</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đầy đủ nội thất ngay bãi tắm Sơn Thủy</t>
+          <t>✅️KHAI TRƯƠNG TÒA CĂN HỘ MỚI XÂY,GẦN NGÃ 3 HUẾ, MẸ NHU,CÓ BAN CÔNG ✅️</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128106151.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128504393.htm</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nhà ở cấp 4 cho thuê</t>
+          <t>Cho thuê Căn hộ, phòng trọ từ 17 -25m</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2390,17 +2390,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>17 m²</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2417,82 +2417,82 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128468878.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128341602.htm</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>phòng trọ khái tây 2 hoà quý Đà Nẵng</t>
+          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗙𝘂𝗹𝗹 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 𝟭𝟬𝟬% 𝗚𝗶𝗮́ 𝗧𝘂̛̀ 𝟮𝗧𝗿𝟯</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126678097.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128498919.htm</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>phòng trung tâm đầy đủ tiện nghi, Nguyễn Văn Linh gần sân bay</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2501,33 +2501,33 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128463693.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128494623.htm</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Phòng trọ yên khê 1</t>
+          <t>PHÒNG GÁC LỬNG CÓ BAN CÔNG HÒA XUÂN GIÁ CHỈ 4,3 TRIỆU</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2,6 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2549,112 +2549,112 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128456987.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128493015.htm</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Khai trương phòng trọ có gác lững mới, có điều hoà, nóng lạnh, tủ bếp</t>
+          <t>trọ khái tây 2 hoà quý</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128450627.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128489193.htm</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tìm nữ ở ghép phòng ban công trong nhà nguyên căn</t>
+          <t>CHO THUÊ CĂN STUDIO - NGŨ HÀNH SƠN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>6,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128445761.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128488165.htm</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mời bạn về nhà</t>
+          <t>Phòng trọ tại 8x Nguyễn Lộ Trạch, 4,5 triệu, 20m2, view đẹp</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4,88 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>38.7999 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2668,27 +2668,27 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128393818.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128485470.htm</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ MỚI XÂY 100% - SỐ 17 CỒN DẦU 19 - HÒA XUÂN - CẨM LỆ</t>
+          <t>PASS CĂN HỘ ĐƯỜNG TRƯƠNG QUANG GIAO-CẨM LỆ THÁNG 11 CÓ THỂ CHUYỂN VÀO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2715,29 +2715,29 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128248490.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128479841.htm</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ cao cấp giá sinh viên</t>
+          <t>CHO THUÊ PHÒNG GÁC LỬNG CÓ NỘI THẤT NGAY BẾN XE ĐẦY ĐỦ TIỆN NGHI</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5,5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2747,16 +2747,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2769,24 +2769,24 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436792.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128472157.htm</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>🌿 Phòng trọ siêu thoáng Hòa Phú 29 – Liên Chiểu, Đà Nẵng 🌿</t>
+          <t>Cho thuê căn gác lửng ngay ngã ba Huế</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2796,36 +2796,36 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436712.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128470639.htm</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>✨ Phòng trọ full nội thất Hòa Phú 29 – Liên Chiểu, Đà Nẵng ✨</t>
+          <t>Tìm bạn ở ghép ( nam) ở lâu dài càng tốt</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>1,25 triệu/tháng</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2835,16 +2835,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2857,19 +2857,19 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436652.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128470096.htm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>✨ Phòng trọ full nội thất Hòa Phú 29 - có ban công – Liên Chiểu✨</t>
+          <t>🌿 Phòng full nội thất khu FPT City – Ngũ Hành Sơn, Đà Nẵng 🌿</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2894,41 +2894,41 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436387.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128469665.htm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ điều hoà  21/10/2025 dọn vào ở ngay</t>
+          <t>Cho thuê phòng đầy đủ nội thất ngay bãi tắm Sơn Thủy</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>22 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2938,36 +2938,36 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127450726.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128106151.htm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>phòng cho thuê trọ</t>
+          <t>phòng trọ khái tây 2 hoà quý Đà Nẵng</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2,9 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2985,45 +2985,45 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128432453.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126678097.htm</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Phòng sạch đẹp ban công thoáng mát Tiểu La ĐN</t>
+          <t>phòng trung tâm đầy đủ tiện nghi, Nguyễn Văn Linh gần sân bay</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3033,19 +3033,19 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128243031.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128463693.htm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>phòng trọ giá rẻ</t>
+          <t>Phòng trọ yên khê 1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>2,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3070,41 +3070,41 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126878219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128456987.htm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pass phòng ạ</t>
+          <t>Khai trương phòng trọ có gác lững mới, có điều hoà, nóng lạnh, tủ bếp</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3117,38 +3117,38 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128430121.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128450627.htm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ gác lững đường Hoàng Minh Thảo, bên cạnh ĐH Duy Tân</t>
+          <t>Tìm nữ ở ghép phòng ban công trong nhà nguyên căn</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3165,78 +3165,78 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128423703.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128445761.htm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cần nữ ở ghép phòng đầy đủ tiện nghi tại Hoà Minh, Liên Chiểu giá tốt</t>
+          <t>Mời bạn về nhà</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4,88 triệu/tháng</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>38.7999 m²</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128420144.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128393818.htm</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ giá tốt gần ĐH Đông Á, Kiến Trúc</t>
+          <t>Cho thuê căn hộ cao cấp giá sinh viên</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>5,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3249,23 +3249,23 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128419135.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436792.htm</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>🌿 Phòng trọ siêu thoáng Hòa Phú 29 – Liên Chiểu, Đà Nẵng 🌿</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3275,46 +3275,46 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128406556.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436712.htm</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Tôi cần bán phòng trọ 168m2, Thanh Vinh12 , quận Liên Chiểu, Đà Nẵng</t>
+          <t>✨ Phòng trọ full nội thất Hòa Phú 29 – Liên Chiểu, Đà Nẵng ✨</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4,4 tỷ/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>168 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3324,36 +3324,36 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128404258.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436652.htm</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Phòng trọ mới xây Núi Thành ngay quảng trường 2/9 từ 3tr5 đến 4tr2</t>
+          <t>✨ Phòng trọ full nội thất Hòa Phú 29 - có ban công – Liên Chiểu✨</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3381,33 +3381,33 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128403387.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436387.htm</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Em cần tìm trọ khu vực cẩm lệ Đà Nẵng ạ ai có liên hê em liền nha</t>
+          <t>Cho thuê phòng trọ điều hoà  21/10/2025 dọn vào ở ngay</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>22 m²</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3422,48 +3422,48 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128402676.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127450726.htm</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>phòng cho thuê trọ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>2,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3473,19 +3473,19 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128398809.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128432453.htm</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ 25/30 Lý Thường Kiệt, TTTP Đà Nẵng</t>
+          <t>Phòng sạch đẹp ban công thoáng mát Tiểu La ĐN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3513,33 +3513,33 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128395266.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128243031.htm</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MẶT TIỀN  ,GIÁ RẺ HÒA XUÂN  CẨM LỆ ĐN .</t>
+          <t>phòng trọ giá rẻ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>1,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3554,41 +3554,41 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128392633.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126878219.htm</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chính chủ cho cho thuê phòng căn hộ</t>
+          <t>Pass phòng ạ, KĐT FPT, ở được 4 người, cho nuôi pet</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3,7 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3605,19 +3605,19 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128310448.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128430121.htm</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Trọ Đà Nẵng Full nội thất- gần đại học kiến trúc</t>
+          <t>Cho Thuê Phòng Trọ gác lững đường Hoàng Minh Thảo, bên cạnh ĐH Duy Tân</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4,49 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3649,78 +3649,78 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128382912.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128423703.htm</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ mini đường Bùi Vịnh, Cẩm Lệ, Đà Nẵng</t>
+          <t>Cần nữ ở ghép phòng đầy đủ tiện nghi tại Hoà Minh, Liên Chiểu giá tốt</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128381967.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128420144.htm</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ HÒA XUÂN</t>
+          <t>Cho thuê phòng trọ giá tốt gần ĐH Đông Á, Kiến Trúc</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3737,38 +3737,38 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128056065.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128419135.htm</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3 NAM 2007 TÌM 1 BẠN Ở GHÉP CÁCH ĐHKT 1,2KM</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3781,34 +3781,34 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128377616.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128406556.htm</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>tìm người ở ghép cùng</t>
+          <t>Tôi cần bán phòng trọ 168m2, Thanh Vinh12 , quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1,3 triệu/tháng</t>
+          <t>4,4 tỷ/tháng</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10 m²</t>
+          <t>168 m²</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -3825,68 +3825,68 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128367431.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128404258.htm</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ RIÊNG BIỆT MẶT TIỀN 8M ĐƯỜNG 5m5 ( đối diện trường học )</t>
+          <t>Phòng trọ mới xây Núi Thành ngay quảng trường 2/9 từ 3tr5 đến 4tr2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128365157.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128403387.htm</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ giá rẻ 41 Nguyễn Xuân Hữu, gần Ông Ích Đường, CMT8</t>
+          <t>Em cần tìm trọ khu vực cẩm lệ Đà Nẵng ạ ai có liên hê em liền nha</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1,7 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3913,29 +3913,29 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126547864.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128402676.htm</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>🏡 HÒA AN 26 – 4 PHÒNG TRỌ – DÒNG TIỀN 7 TRIỆU/THÁNG 💰</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3,15 tỷ/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>83 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3957,14 +3957,14 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128339208.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128398809.htm</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>🌿✨ CHO THUÊ PHÒNG TRỌ / CĂN HỘ ✨🌿</t>
+          <t>Cho Thuê Phòng Trọ 25/30 Lý Thường Kiệt, TTTP Đà Nẵng</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3974,12 +3974,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3988,47 +3988,47 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128334166.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128395266.htm</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>🇻🇳CHO THUÊ 2 PHÒNG TRONG NHÀ NGUYÊN CĂN RỘNG THOÁNG</t>
+          <t>PHÒNG TRỌ MẶT TIỀN  ,GIÁ RẺ HÒA XUÂN  CẨM LỆ ĐN .</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4038,45 +4038,45 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128332786.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128392633.htm</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Phòng mới xây ở trung tâm ngay Lotte Mart, 30m2</t>
+          <t>Chính chủ cho cho thuê phòng căn hộ</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>3,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4089,19 +4089,19 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128329059.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128310448.htm</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ MINI CAO CẤP – NGŨ HÀNH SƠN, ĐÀ NẴNG 🌟</t>
+          <t>Trọ Đà Nẵng Full nội thất- gần đại học kiến trúc</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>4,49 triệu/tháng</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4111,16 +4111,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4133,14 +4133,14 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127596982.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128382912.htm</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Mê Linh</t>
+          <t>Cho thuê căn hộ mini đường Bùi Vịnh, Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4150,12 +4150,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>27 m²</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4173,67 +4173,67 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128287577.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128381967.htm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ</t>
+          <t>PHÒNG TRỌ HÒA XUÂN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127905777.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128056065.htm</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT MỚI 100% CÓ BAN CÔNG RỘNG THOÁNG MÁT</t>
+          <t>3 NAM 2007 TÌM 1 BẠN Ở GHÉP CÁCH ĐHKT 1,2KM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4252,10 +4252,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4265,38 +4265,38 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128280184.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128377616.htm</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ GÁC LỬNG NGUYỄN NHƯ HẠNH GIẶT RIÊNG GẦN DUY TÂN</t>
+          <t>tìm người ở ghép cùng</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4,1 triệu/tháng</t>
+          <t>1,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>10 m²</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -4309,38 +4309,38 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128272496.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128367431.htm</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHÍNH CHỦ CHO THUÊ PHÒNG – NGAY TRUNG TÂM ĐÀ NẴNG</t>
+          <t>CHO THUÊ NHÀ RIÊNG BIỆT MẶT TIỀN 8M ĐƯỜNG 5m5 ( đối diện trường học )</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4349,33 +4349,33 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128269219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128365157.htm</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PHÒNG GÁC LỬNG FULL NỘI THẤT QUẬN LIÊN CHIỂU</t>
+          <t>Cho thuê phòng trọ giá rẻ 41 Nguyễn Xuân Hữu, gần Ông Ích Đường, CMT8</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4397,29 +4397,29 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128266832.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126547864.htm</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CĂN HỘ GÁC LỬNG CHO THUÊ TRUNG TÂM THÀNH PHỐ Ở ĐƯỢC 4 BẠN SV</t>
+          <t>🏡 HÒA AN 26 – 4 PHÒNG TRỌ – DÒNG TIỀN 7 TRIỆU/THÁNG 💰</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8,5 triệu/tháng</t>
+          <t>3,15 tỷ/tháng</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>83 m²</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4441,29 +4441,29 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127322953.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128339208.htm</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cho thuê căn hộ mini 1 phòng ngủ</t>
+          <t>🌿✨ CHO THUÊ PHÒNG TRỌ / CĂN HỘ ✨🌿</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>13 m²</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4472,47 +4472,47 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127610219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128334166.htm</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>🏠 PHÒNG GÁC LỬNG – NGUYỄN NHƯ HẠNH, LIÊN CHIỂU</t>
+          <t>🇻🇳CHO THUÊ 2 PHÒNG TRONG NHÀ NGUYÊN CĂN RỘNG THOÁNG</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4529,24 +4529,24 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128236511.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128332786.htm</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cho thuê toà căn hộ 4 tầng 7 phòng đường Đoàn Khuê</t>
+          <t>CHO THUÊ CĂN HỘ MINI CAO CẤP – NGŨ HÀNH SƠN, ĐÀ NẴNG 🌟</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>28 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4569,38 +4569,38 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128235142.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127596982.htm</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cho thuê nhà nguyên căn</t>
+          <t>Cho thuê phòng trọ đường Mê Linh</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>8,5 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>104 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4617,68 +4617,68 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128230872.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128287577.htm</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cho thuê nhà khu vực quang châu hòa phước</t>
+          <t>Cho Thuê Phòng Trọ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1,7 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128228939.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127905777.htm</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cần cho thê phòng trọ giá rẻ</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT MỚI 100% CÓ BAN CÔNG RỘNG THOÁNG MÁT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4705,29 +4705,29 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128227046.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128280184.htm</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>✅PHÒNG TRỌ GÁC LỬNG ĐẦY ĐỦ TIỆN NGHI - GẦN ĐH KINH TẾ</t>
+          <t>CHO THUÊ PHÒNG TRỌ GÁC LỬNG NGUYỄN NHƯ HẠNH GIẶT RIÊNG GẦN DUY TÂN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4739,34 +4739,34 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128225804.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128272496.htm</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Chính chủ cho thuê phòng trọ trên tầng</t>
+          <t>CHÍNH CHỦ CHO THUÊ PHÒNG – NGAY TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4786,31 +4786,31 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128223243.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128269219.htm</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Phòng trọ gác lửng full nội thất ngay Ngã Ba Huế</t>
+          <t>PHÒNG GÁC LỬNG FULL NỘI THẤT QUẬN LIÊN CHIỂU</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4820,11 +4820,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4837,41 +4837,41 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128222295.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128266832.htm</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Phòng trọ đường Hà Bổng</t>
+          <t>CĂN HỘ GÁC LỬNG CHO THUÊ TRUNG TÂM THÀNH PHỐ Ở ĐƯỢC 4 BẠN SV</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>8,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4881,41 +4881,41 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128217671.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127322953.htm</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PHÒNG GÁC LỬNG Ở ĐƯỜNG BỜ QUAN - HOÀ QUÝ - GẦN CẦU TRUNG LƯƠNG 🌟</t>
+          <t>cho thuê căn hộ mini 1 phòng ngủ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F102" t="n">
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4925,29 +4925,29 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128215507.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127610219.htm</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GÁC LỬNG Ở ĐƯỢC 3 BẠN - ĐƯỜNG TRẦN NGỌC SƯƠNG - GẦN ĐÔNG Á KIẾN TRÚC</t>
+          <t>Cho thuê toà căn hộ 4 tầng 7 phòng đường Đoàn Khuê</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>28 triệu/tháng</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4956,47 +4956,47 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128189959.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128235142.htm</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Phòng Trọ Ngay Mặt Đường</t>
+          <t>cho thuê nhà nguyên căn</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>8,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>104 m²</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5013,29 +5013,29 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128177160.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128230872.htm</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Phòng trọ/ Căn hộ</t>
+          <t>Cho thuê nhà khu vực quang châu hòa phước</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>1,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5044,10 +5044,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -5057,29 +5057,29 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128173132.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128228939.htm</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cho thuê 3 phòng 24m2 tầng 2&amp;3</t>
+          <t>Cần cho thê phòng trọ giá rẻ</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3,3 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5088,81 +5088,81 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128172121.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128227046.htm</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Trần Văn Thành - Ngũ Hành Sơn - Đà Nẵng</t>
+          <t>Chính chủ cho thuê phòng trọ trên tầng</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2,4 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128154852.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128223243.htm</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Cho nữ sinh viên thuê trọ</t>
+          <t>Phòng trọ đường Hà Bổng</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5172,14 +5172,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -5189,34 +5189,34 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128098285.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128217671.htm</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Căn hộ studio cầu rồng</t>
+          <t>GÁC LỬNG Ở ĐƯỢC 3 BẠN - ĐƯỜNG TRẦN NGỌC SƯƠNG - GẦN ĐÔNG Á KIẾN TRÚC</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5,5 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5226,21 +5226,21 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128082131.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128189959.htm</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ hòa khánh đà nẵng</t>
+          <t>Phòng Trọ Ngay Mặt Đường</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5250,68 +5250,68 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128062696.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128177160.htm</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>em cần tìm trọ gần đại học đông á ạ, 1 người ở nữ</t>
+          <t>Phòng trọ/ Căn hộ</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5321,68 +5321,68 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128057713.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128173132.htm</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cho thuê trọ gần ĐH Kiến trúc, Đông Á,  Đại việt, LotterMart</t>
+          <t>Cho thuê 3 phòng 24m2 tầng 2&amp;3</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>3,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>14 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128044952.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128172121.htm</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Phòng trọ 25m2 gần Bệnh viện Phụ sản - Nhi Đà Nẵng</t>
+          <t>Cho thuê phòng trọ đường Trần Văn Thành - Ngũ Hành Sơn - Đà Nẵng</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>2,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5409,19 +5409,19 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128043795.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128154852.htm</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Phòng rẻ nhất Ngũ Hành Sơn</t>
+          <t>Cho nữ sinh viên thuê trọ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5431,80 +5431,80 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F114" t="n">
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128016776.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128098285.htm</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Combo 2 phòng ngủ tầng 3 nhà MT số 299 Lê Duẩn, P. Tân Chính, Đà Nẵng</t>
+          <t>Căn hộ studio cầu rồng</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>5,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127994757.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128082131.htm</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Phòng mới xây xong nội thất full mới ***</t>
+          <t>Cho thuê phòng trọ hòa khánh đà nẵng</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5531,44 +5531,44 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127976873.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128062696.htm</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>cần thuê nhà</t>
+          <t>em cần tìm trọ gần đại học đông á ạ, 1 người ở nữ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5585,34 +5585,34 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127973425.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128057713.htm</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cho Thuê Căn Hộ Duplex</t>
+          <t>Cho thuê trọ gần ĐH Kiến trúc, Đông Á,  Đại việt, LotterMart</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>14 m²</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -5625,28 +5625,28 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127919681.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128044952.htm</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Phòng 2 giường gần Châu Thị Vĩnh Tế có máy chiếu, bếp riêng</t>
+          <t>Phòng trọ 25m2 gần Bệnh viện Phụ sản - Nhi Đà Nẵng</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5656,11 +5656,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5669,77 +5669,77 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127951336.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128043795.htm</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SIÊU PHẨM GÁC LỬNG – HÒA PHÚ 24, LIÊN CHIỂU</t>
+          <t>Phòng rẻ nhất Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F120" t="n">
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127928163.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128016776.htm</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trong nhà</t>
+          <t>Combo 2 phòng ngủ tầng 3 nhà MT số 299 Lê Duẩn, P. Tân Chính, Đà Nẵng</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>14 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5748,37 +5748,37 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127901711.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127994757.htm</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 80m2 gần công an phường Hoà Khánh</t>
+          <t>Phòng mới xây xong nội thất full mới ***</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -5805,38 +5805,38 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127855366.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127976873.htm</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cho Thuê trọ phòng khách sạn</t>
+          <t>cần thuê nhà</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5849,29 +5849,29 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127808442.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127973425.htm</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cho thuê phòng ngay trung tâm TP, sau lưng Đại Học Duy Tân</t>
+          <t>Cho Thuê Căn Hộ Duplex</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>4,15 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5880,7 +5880,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -5889,28 +5889,28 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127805338.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127919681.htm</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ TẠI ĐA MẶN ĐÔNG 2</t>
+          <t>Phòng 2 giường gần Châu Thị Vĩnh Tế có máy chiếu, bếp riêng</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5933,42 +5933,42 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127764329.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127951336.htm</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ khu nhà 3 tầng khong chung chủ</t>
+          <t>SIÊU PHẨM GÁC LỬNG – HÒA PHÚ 24, LIÊN CHIỂU</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5981,34 +5981,34 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127724483.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127928163.htm</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Dịch vụ Quản Lý Nhà Trọ – Căn Hộ Cho Thuê tại Ngũ Hành Sơn</t>
+          <t>Cho thuê phòng trong nhà</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>14 m²</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6021,38 +6021,38 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127719513.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127901711.htm</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>phòng trọ hà bổng</t>
+          <t>Cho thuê nhà 80m2 gần công an phường Hoà Khánh</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6069,29 +6069,29 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127707666.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127855366.htm</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Nhà trọ cho sinh viên hoặc gia đình</t>
+          <t>Cho Thuê trọ phòng khách sạn</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>400000 đ/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6100,37 +6100,37 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127610942.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127808442.htm</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Nhượng phòng trọ</t>
+          <t>Cho thuê phòng ngay trung tâm TP, sau lưng Đại Học Duy Tân</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4,15 triệu/tháng</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6140,11 +6140,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -6153,18 +6153,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127689867.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127805338.htm</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>🏡 CĂN STUDIO MỚI CẢI TẠO – FULL NỘI THẤT – NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
+          <t>CHO THUÊ CĂN HỘ TẠI ĐA MẶN ĐÔNG 2</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6194,26 +6194,26 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127624334.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127764329.htm</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>Cho thuê phòng trọ khu nhà 3 tầng khong chung chủ</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6245,78 +6245,78 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127598181.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127724483.htm</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>phòng trọ 50m2 tại k94 nguyễn công trứ, p. an hải</t>
+          <t>Dịch vụ Quản Lý Nhà Trọ – Căn Hộ Cho Thuê tại Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127547468.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127719513.htm</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ gần trường đại học kinh tế</t>
+          <t>phòng trọ hà bổng</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6333,24 +6333,24 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127545749.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127707666.htm</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>cho thuê phòng chính chủ gần bách khoa cao đẳng kte kế hoạch,sư phạm</t>
+          <t>Nhà trọ cho sinh viên hoặc gia đình</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>400000 đ/tháng</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6370,36 +6370,36 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127474334.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127610942.htm</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>Nhượng phòng trọ</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6421,58 +6421,58 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127523752.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127689867.htm</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cho thuê phòng trọ 18m2( chứ kể gác lững) đường Tống Phước Phổ</t>
+          <t>🏡 CĂN STUDIO MỚI CẢI TẠO – FULL NỘI THẤT – NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1,9 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127502036.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127624334.htm</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Hà Bổng, Q. Sơn Trà</t>
+          <t>Cho thuê phòng trọ</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6482,12 +6482,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6509,68 +6509,68 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127448559.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127598181.htm</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>phòng trọ 50m2 tại k94 nguyễn công trứ, p. an hải</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127421564.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127547468.htm</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Trọ Ngũ hành sơn</t>
+          <t>Cho thuê phòng trọ gần trường đại học kinh tế</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1,2 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -6597,19 +6597,19 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127419998.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127545749.htm</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ HOÀ PHƯỚC HOÀ VANG, TP ĐÀ NẴNG</t>
+          <t>cho thuê phòng chính chủ gần bách khoa cao đẳng kte kế hoạch,sư phạm</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>1,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6634,41 +6634,41 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127406115.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127474334.htm</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>cho thuê tháng</t>
+          <t>Cho thuê phòng trọ</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -6685,34 +6685,34 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127403418.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127523752.htm</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Phòng trọ sinh viên gần ĐH Ngoại Ngữ CS Lương Nhữ Hộc</t>
+          <t>cho thuê phòng trọ 18m2( chứ kể gác lững) đường Tống Phước Phổ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>1,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -6729,51 +6729,271 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127388798.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127502036.htm</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Khai trương giảm giá phòng, toà Apartment view công viên Hồ Nghinh🏝️</t>
+          <t>Cho thuê phòng trọ đường Hà Bổng, Q. Sơn Trà</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>3 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>25 m²</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127448559.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Cho thuê phòng trọ</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>4 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>27 m²</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Nội thất cao cấp</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127421564.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Trọ Ngũ hành sơn</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1,2 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>25 m²</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127419998.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>CHO THUÊ PHÒNG TRỌ HOÀ PHƯỚC HOÀ VANG, TP ĐÀ NẴNG</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1,8 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>18 m²</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Nhà trống</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127406115.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>cho thuê tháng</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>4,5 triệu/tháng</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>30 m²</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127403418.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Phòng trọ sinh viên gần ĐH Ngoại Ngữ CS Lương Nhữ Hộc</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>4,5 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>20 m²</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Nội thất cao cấp</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127254046.htm</t>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127388798.htm</t>
         </is>
       </c>
     </row>

--- a/nhatot_phongtro_danang_all.xlsx
+++ b/nhatot_phongtro_danang_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J149"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,34 +488,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cho thuê phòng trọ gia đình</t>
+          <t>Cho thuê phòng đầy đủ tiện nghi,khu ngã ba huế,bến xe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -525,29 +525,29 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128501768.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128606799.htm</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cho thuê phòng full nội thất cao cấp</t>
+          <t>Cho thuê phòng trọ đường Châu Văn Liêm, gần Vũ Trường Phương Đông</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7,9 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>32 m²</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -556,20 +556,20 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128581505.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128605782.htm</t>
         </is>
       </c>
     </row>
@@ -620,31 +620,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phòng trọ hk bắc giá rẻ</t>
+          <t>Pass phòng trọ tầng 3 thang bộ ở 1219 Nguyễn Tất Thành  2tr7/1 tháng</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 triệu/tháng</t>
+          <t>2,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -657,51 +657,51 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128581332.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128604416.htm</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phòng trọ đủ tiện nghi khu công nghệ cao</t>
+          <t>CHO THUÊ PHÒNG TRỌ 1 TRÊN DÃY PHÒNG TẦNG 3 VỆ SINH CHUNG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>17 m²</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128578263.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128602465.htm</t>
         </is>
       </c>
     </row>
@@ -752,78 +752,78 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>🏡 PHÒNG GIÁ SINH VIÊN – NGUYỄN NHƯ HẠNH, LIÊN CHIỂU 🏡</t>
+          <t>139 ngô quyền CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>1,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128575887.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128600298.htm</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cho thuê phòng điều hoà ở 3 đến 4 người</t>
+          <t>PHÒNG TRỌ CÓ NỘI THẤT CƠ BẢN KHU VỰC HOÀ XUÂN MỚI 100%</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -833,73 +833,73 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128109356.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128598855.htm</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>🔥 NÚI THÀNH TRỐNG SẴN CĂN GÁC LỬNG 🔥</t>
+          <t>CHO THUÊ PHÒNG ĐẦY ĐỦ TIỆN NGHI , NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128568689.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128596813.htm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ MỚI XÂY 100% - SỐ 17 CỒN DẦU 19 - HÒA XUÂN - CẨM LỆ</t>
+          <t>Phòng trọ gác lửng full nội thất ngay Ngã Ba Huế</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -921,29 +921,29 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128248490.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128222295.htm</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ studio đường Trần Nhật Duật</t>
+          <t>PHÒNG SẠCH SẼ CHỈ 1.8TR TẦNG 2 MẶT TIỀN PHAN TRỌNG TUỆ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5,8 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -965,29 +965,29 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128564714.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128593359.htm</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phòng trọ ở Ngũ Hành Sơn</t>
+          <t>Phòng trọ cho thuê gần KCN Hòa Cầm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>600000 đ/tháng</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1009,34 +1009,34 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128564248.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128591494.htm</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>phòng mới nội thất đầy đủ gần trường học cấp 1 chợ bv 600 gường</t>
+          <t>cho thuê phòng trọ gia đình</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3,3 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>32 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1049,33 +1049,33 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128144367.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128501768.htm</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>💥💥💥💥💥Còn trống 1 phòng ***</t>
+          <t>cho thuê giường dorm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>1,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>38 m²</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1084,42 +1084,42 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128498042.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126893939.htm</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Phòng trọ 3 sao mới xây tiện nghi,đầy đủ thiết bị Nguyễn Duy Trinh</t>
+          <t>phòng trọ cao cấp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>27 m²</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1128,51 +1128,51 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127566741.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127030626.htm</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nhượng lại phòng trọ</t>
+          <t>cho thuê phòng full nội thất cao cấp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>7,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1185,24 +1185,24 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128559019.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128581505.htm</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🌿 PHÒNG GIÁ SIÊU RẺ - FULL NỘI THẤT – ĐƯỜNG HÒA PHÚ 29, LIÊN CHIỂU 🌿</t>
+          <t>Phòng trọ hk bắc giá rẻ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6,3 triệu/tháng</t>
+          <t>1 triệu/tháng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1216,51 +1216,51 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128555922.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128581332.htm</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Căn hộ Nguyễn Thị Định cho thuê</t>
+          <t>🏡 PHÒNG GIÁ SINH VIÊN – NGUYỄN NHƯ HẠNH, LIÊN CHIỂU 🏡</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128555766.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128575887.htm</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Phòng có ban công thoáng mát - Ngay cầu Rồng siêu tiện nghi</t>
+          <t>Cho thuê phòng điều hoà ở 3 đến 4 người</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1317,29 +1317,29 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128544746.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128109356.htm</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cho thuê phòng giường tầng phòng dorm</t>
+          <t>🔥 NÚI THÀNH TRỐNG SẴN CĂN GÁC LỬNG 🔥</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1357,42 +1357,42 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128128560.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128568689.htm</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MỚI XÂY THOÁNG MÁT, BAN CÔNG GẦN ĐH FPT</t>
+          <t>CHO THUÊ CĂN HỘ MỚI XÂY 100% - SỐ 17 CỒN DẦU 19 - HÒA XUÂN - CẨM LỆ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3,1 triệu/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1405,29 +1405,29 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128543234.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128248490.htm</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cho thuê Căn hộ mini 30m2 có 1 phòng ngủ riêng</t>
+          <t>Cho thuê căn hộ studio đường Trần Nhật Duật</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,1 triệu/tháng</t>
+          <t>5,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1449,24 +1449,24 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128296377.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128564714.htm</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kím bạn nữ ở ghép</t>
+          <t>Phòng trọ ở Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1,3 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1493,29 +1493,29 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128537507.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128564248.htm</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tôi cần bán dãy trọ 139m2 ngang 6m Nguyễn Lương Bằng sát ĐH Bách Khoa</t>
+          <t>💥💥💥💥💥Còn trống 1 phòng ***</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3,5 tỷ/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>139 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1530,85 +1530,85 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128059310.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128498042.htm</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phòng trọ mặt tièn</t>
+          <t>Phòng trọ 3 sao mới xây tiện nghi,đầy đủ thiết bị Nguyễn Duy Trinh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>26 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128535033.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127566741.htm</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phòng trọ gác lửng mới hoàn toàn, Gần DH Bách Khoa, Sư Phạm</t>
+          <t>Nhượng lại phòng trọ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1625,24 +1625,24 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127964619.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128559019.htm</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
+          <t>🌿 PHÒNG GIÁ SIÊU RẺ - FULL NỘI THẤT – ĐƯỜNG HÒA PHÚ 29, LIÊN CHIỂU 🌿</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>6,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1656,42 +1656,42 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128523320.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128555922.htm</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phòng Full Nội Thất Khu FPT - Ngũ Hành Sơn</t>
+          <t>Căn hộ Nguyễn Thị Định cho thuê</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1713,29 +1713,29 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128025078.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128555766.htm</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GIÁ CHƯA TỚI 3TR NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
+          <t>Phòng có ban công thoáng mát - Ngay cầu Rồng siêu tiện nghi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1753,23 +1753,23 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128520533.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128544746.htm</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT ĐỐI DIỆN ĐẠI HỌC FPT ĐI BỘ 3 PHÚT</t>
+          <t>Cho thuê phòng giường tầng phòng dorm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1 triệu/tháng</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1801,34 +1801,34 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128174992.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128128560.htm</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MỚI 100% GẦN ĐẠI HỌC ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
+          <t>PHÒNG TRỌ MỚI XÂY THOÁNG MÁT, BAN CÔNG GẦN ĐH FPT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4,1 triệu/tháng</t>
+          <t>3,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1845,19 +1845,19 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128174964.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128543234.htm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>🚀 STUDIO RẺ NHẤT KHU HOÀ XUÂN – CHỈ 4.3 TRIỆU! 🌟</t>
+          <t>Cho thuê Căn hộ mini 30m2 có 1 phòng ngủ riêng</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>2,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1889,24 +1889,24 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128519749.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128296377.htm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐƯỜNG MINH MẠNG, CẦU TRUNG LƯƠNG</t>
+          <t>kím bạn nữ ở ghép</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3,7 triệu/tháng</t>
+          <t>1,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1933,29 +1933,29 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128519512.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128537507.htm</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Căn hộ dịch vụ mini apartment Hòa Xuân Cẩm Lệ</t>
+          <t>Tôi cần bán dãy trọ 139m2 ngang 6m Nguyễn Lương Bằng sát ĐH Bách Khoa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,5 tỷ/tháng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>139 m²</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1973,23 +1973,23 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/122592431.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128059310.htm</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>căn duplex gần ĐH FPT, FPT Plaaza 1,2,3, việt hàn</t>
+          <t>Phòng trọ gác lửng mới hoàn toàn, Gần DH Bách Khoa, Sư Phạm</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1999,16 +1999,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2021,29 +2021,29 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/123621254.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127964619.htm</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Phòng tầng 1 có bếp riêng, phòng ngủ riêng.</t>
+          <t>CHO THUÊ PHÒNG TRỌ NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5,2 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2065,29 +2065,29 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128350810.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128523320.htm</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cho thuê Phòng trọ gần bến xe, đầy đủ tiện nghi như căn hộ mini</t>
+          <t>Phòng Full Nội Thất Khu FPT - Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2105,42 +2105,42 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128511955.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128025078.htm</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ mới xây - Cồn Dầu 19, Hoà Xuân</t>
+          <t>GIÁ CHƯA TỚI 3TR NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2149,28 +2149,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128492279.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128520533.htm</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Phòng trọ tiện nghi, trung tâm Ngũ Hành Sơn</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT ĐỐI DIỆN ĐẠI HỌC FPT ĐI BỘ 3 PHÚT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2180,46 +2180,46 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128189660.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128174992.htm</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Phòng trọ làng đại học Đà Nẵng - khu FPT, ngay sát đường Trần Hưng Đạo</t>
+          <t>PHÒNG TRỌ MỚI 100% GẦN ĐẠI HỌC ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2,7 triệu/tháng</t>
+          <t>4,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2241,29 +2241,29 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127807785.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128174964.htm</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cho thuê phòng gác lửng đầy đủ nội thất gần Cầu vượt Ngã Ba Huế</t>
+          <t>🚀 STUDIO RẺ NHẤT KHU HOÀ XUÂN – CHỈ 4.3 TRIỆU! 🌟</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2285,24 +2285,24 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128507241.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128519749.htm</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đủ nội thất gần Đại học FPT, giá sinh viên</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐƯỜNG MINH MẠNG, CẦU TRUNG LƯƠNG</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2329,41 +2329,41 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127354068.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128519512.htm</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>✅️KHAI TRƯƠNG TÒA CĂN HỘ MỚI XÂY,GẦN NGÃ 3 HUẾ, MẸ NHU,CÓ BAN CÔNG ✅️</t>
+          <t>Căn hộ dịch vụ mini apartment Hòa Xuân Cẩm Lệ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2373,24 +2373,24 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128504393.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/122592431.htm</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Cho thuê Căn hộ, phòng trọ từ 17 -25m</t>
+          <t>căn duplex gần ĐH FPT, FPT Plaaza 1,2,3, việt hàn</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2417,78 +2417,78 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128341602.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/123621254.htm</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗙𝘂𝗹𝗹 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 𝟭𝟬𝟬% 𝗚𝗶𝗮́ 𝗧𝘂̛̀ 𝟮𝗧𝗿𝟯</t>
+          <t>Phòng tầng 1 có bếp riêng, phòng ngủ riêng.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>5,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128498919.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128350810.htm</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>Cho thuê Phòng trọ gần bến xe, đầy đủ tiện nghi như căn hộ mini</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2501,28 +2501,28 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128494623.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128511955.htm</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PHÒNG GÁC LỬNG CÓ BAN CÔNG HÒA XUÂN GIÁ CHỈ 4,3 TRIỆU</t>
+          <t>Cho thuê căn hộ mới xây - Cồn Dầu 19, Hoà Xuân</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2542,31 +2542,31 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128493015.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128492279.htm</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>trọ khái tây 2 hoà quý</t>
+          <t>Phòng trọ tiện nghi, trung tâm Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2576,46 +2576,46 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128489193.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128189660.htm</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN STUDIO - NGŨ HÀNH SƠN</t>
+          <t>Cho thuê phòng gác lửng đầy đủ nội thất gần Cầu vượt Ngã Ba Huế</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6,2 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2630,70 +2630,70 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128488165.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128507241.htm</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Phòng trọ tại 8x Nguyễn Lộ Trạch, 4,5 triệu, 20m2, view đẹp</t>
+          <t>Cho thuê phòng đủ nội thất gần Đại học FPT, giá sinh viên</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128485470.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127354068.htm</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PASS CĂN HỘ ĐƯỜNG TRƯƠNG QUANG GIAO-CẨM LỆ THÁNG 11 CÓ THỂ CHUYỂN VÀO</t>
+          <t>✅️KHAI TRƯƠNG TÒA CĂN HỘ MỚI XÂY,GẦN NGÃ 3 HUẾ, MẸ NHU,CÓ BAN CÔNG ✅️</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2703,16 +2703,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2725,29 +2725,29 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128479841.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128504393.htm</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG GÁC LỬNG CÓ NỘI THẤT NGAY BẾN XE ĐẦY ĐỦ TIỆN NGHI</t>
+          <t>Cho thuê Căn hộ, phòng trọ từ 17 -25m</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>17 m²</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128472157.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128341602.htm</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cho thuê căn gác lửng ngay ngã ba Huế</t>
+          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗙𝘂𝗹𝗹 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 𝟭𝟬𝟬% 𝗚𝗶𝗮́ 𝗧𝘂̛̀ 𝟮𝗧𝗿𝟯</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2800,37 +2800,37 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128470639.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128498919.htm</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tìm bạn ở ghép ( nam) ở lâu dài càng tốt</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1,25 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2850,41 +2850,41 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128470096.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128494623.htm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>🌿 Phòng full nội thất khu FPT City – Ngũ Hành Sơn, Đà Nẵng 🌿</t>
+          <t>PHÒNG GÁC LỬNG CÓ BAN CÔNG HÒA XUÂN GIÁ CHỈ 4,3 TRIỆU</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2894,31 +2894,31 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128469665.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128493015.htm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đầy đủ nội thất ngay bãi tắm Sơn Thủy</t>
+          <t>trọ khái tây 2 hoà quý</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2945,24 +2945,24 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128106151.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128489193.htm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>phòng trọ khái tây 2 hoà quý Đà Nẵng</t>
+          <t>CHO THUÊ CĂN STUDIO - NGŨ HÀNH SƠN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>6,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2979,51 +2979,51 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126678097.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128488165.htm</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>phòng trung tâm đầy đủ tiện nghi, Nguyễn Văn Linh gần sân bay</t>
+          <t>Phòng trọ tại 8x Nguyễn Lộ Trạch, 4,5 triệu, 20m2, view đẹp</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3033,78 +3033,78 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128463693.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128485470.htm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Phòng trọ yên khê 1</t>
+          <t>PASS CĂN HỘ ĐƯỜNG TRƯƠNG QUANG GIAO-CẨM LỆ THÁNG 11 CÓ THỂ CHUYỂN VÀO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2,6 triệu/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128456987.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128479841.htm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Khai trương phòng trọ có gác lững mới, có điều hoà, nóng lạnh, tủ bếp</t>
+          <t>CHO THUÊ PHÒNG GÁC LỬNG CÓ NỘI THẤT NGAY BẾN XE ĐẦY ĐỦ TIỆN NGHI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3117,89 +3117,89 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128450627.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128472157.htm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tìm nữ ở ghép phòng ban công trong nhà nguyên căn</t>
+          <t>Cho thuê căn gác lửng ngay ngã ba Huế</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128445761.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128470639.htm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Mời bạn về nhà</t>
+          <t>Tìm bạn ở ghép ( nam) ở lâu dài càng tốt</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4,88 triệu/tháng</t>
+          <t>1,25 triệu/tháng</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>38.7999 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -3209,19 +3209,19 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128393818.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128470096.htm</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ cao cấp giá sinh viên</t>
+          <t>🌿 Phòng full nội thất khu FPT City – Ngũ Hành Sơn, Đà Nẵng 🌿</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3231,16 +3231,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3253,29 +3253,29 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436792.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128469665.htm</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>🌿 Phòng trọ siêu thoáng Hòa Phú 29 – Liên Chiểu, Đà Nẵng 🌿</t>
+          <t>Cho thuê phòng đầy đủ nội thất ngay bãi tắm Sơn Thủy</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3284,42 +3284,42 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436712.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128106151.htm</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>✨ Phòng trọ full nội thất Hòa Phú 29 – Liên Chiểu, Đà Nẵng ✨</t>
+          <t>phòng trọ khái tây 2 hoà quý Đà Nẵng</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3328,47 +3328,47 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436652.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126678097.htm</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>✨ Phòng trọ full nội thất Hòa Phú 29 - có ban công – Liên Chiểu✨</t>
+          <t>phòng trung tâm đầy đủ tiện nghi, Nguyễn Văn Linh gần sân bay</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3378,41 +3378,41 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436387.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128463693.htm</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ điều hoà  21/10/2025 dọn vào ở ngay</t>
+          <t>Phòng trọ yên khê 1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>2,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>22 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3429,78 +3429,78 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127450726.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128456987.htm</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>phòng cho thuê trọ</t>
+          <t>Khai trương phòng trọ có gác lững mới, có điều hoà, nóng lạnh, tủ bếp</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2,9 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128432453.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128450627.htm</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Phòng sạch đẹp ban công thoáng mát Tiểu La ĐN</t>
+          <t>Tìm nữ ở ghép phòng ban công trong nhà nguyên căn</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3517,73 +3517,73 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128243031.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128445761.htm</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>phòng trọ giá rẻ</t>
+          <t>Mời bạn về nhà</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>4,88 triệu/tháng</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>38.7999 m²</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126878219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128393818.htm</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pass phòng ạ, KĐT FPT, ở được 4 người, cho nuôi pet</t>
+          <t>Cho thuê căn hộ cao cấp giá sinh viên</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>5,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3605,24 +3605,24 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128430121.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436792.htm</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ gác lững đường Hoàng Minh Thảo, bên cạnh ĐH Duy Tân</t>
+          <t>🌿 Phòng trọ siêu thoáng Hòa Phú 29 – Liên Chiểu, Đà Nẵng 🌿</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3639,29 +3639,29 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128423703.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436712.htm</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cần nữ ở ghép phòng đầy đủ tiện nghi tại Hoà Minh, Liên Chiểu giá tốt</t>
+          <t>✨ Phòng trọ full nội thất Hòa Phú 29 – Liên Chiểu, Đà Nẵng ✨</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3676,90 +3676,90 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128420144.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436652.htm</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ giá tốt gần ĐH Đông Á, Kiến Trúc</t>
+          <t>✨ Phòng trọ full nội thất Hòa Phú 29 - có ban công – Liên Chiểu✨</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128419135.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436387.htm</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>Cho thuê phòng trọ điều hoà  21/10/2025 dọn vào ở ngay</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>22 m²</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3774,48 +3774,48 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128406556.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127450726.htm</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Tôi cần bán phòng trọ 168m2, Thanh Vinh12 , quận Liên Chiểu, Đà Nẵng</t>
+          <t>phòng cho thuê trọ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4,4 tỷ/tháng</t>
+          <t>2,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>168 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3825,34 +3825,34 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128404258.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128432453.htm</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Phòng trọ mới xây Núi Thành ngay quảng trường 2/9 từ 3tr5 đến 4tr2</t>
+          <t>Pass phòng ạ, KĐT FPT, ở được 4 người, cho nuôi pet</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3862,80 +3862,80 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128403387.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128430121.htm</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Em cần tìm trọ khu vực cẩm lệ Đà Nẵng ạ ai có liên hê em liền nha</t>
+          <t>Cho Thuê Phòng Trọ gác lững đường Hoàng Minh Thảo, bên cạnh ĐH Duy Tân</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128402676.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128423703.htm</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>Cần nữ ở ghép phòng đầy đủ tiện nghi tại Hoà Minh, Liên Chiểu giá tốt</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3957,14 +3957,14 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128398809.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128420144.htm</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ 25/30 Lý Thường Kiệt, TTTP Đà Nẵng</t>
+          <t>Cho thuê phòng trọ giá tốt gần ĐH Đông Á, Kiến Trúc</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3984,36 +3984,36 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128395266.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128419135.htm</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MẶT TIỀN  ,GIÁ RẺ HÒA XUÂN  CẨM LỆ ĐN .</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4038,31 +4038,31 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128392633.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128406556.htm</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Chính chủ cho cho thuê phòng căn hộ</t>
+          <t>Tôi cần bán phòng trọ 168m2, Thanh Vinh12 , quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3,7 triệu/tháng</t>
+          <t>4,4 tỷ/tháng</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>168 m²</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4089,24 +4089,24 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128310448.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128404258.htm</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Trọ Đà Nẵng Full nội thất- gần đại học kiến trúc</t>
+          <t>Phòng trọ mới xây Núi Thành ngay quảng trường 2/9 từ 3tr5 đến 4tr2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4,49 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4126,31 +4126,31 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128382912.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128403387.htm</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ mini đường Bùi Vịnh, Cẩm Lệ, Đà Nẵng</t>
+          <t>Em cần tìm trọ khu vực cẩm lệ Đà Nẵng ạ ai có liên hê em liền nha</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4160,11 +4160,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -4173,38 +4173,38 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128381967.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128402676.htm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ HÒA XUÂN</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4217,33 +4217,33 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128056065.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128398809.htm</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3 NAM 2007 TÌM 1 BẠN Ở GHÉP CÁCH ĐHKT 1,2KM</t>
+          <t>Cho Thuê Phòng Trọ 25/30 Lý Thường Kiệt, TTTP Đà Nẵng</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4265,24 +4265,24 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128377616.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128395266.htm</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tìm người ở ghép cùng</t>
+          <t>PHÒNG TRỌ MẶT TIỀN  ,GIÁ RẺ HÒA XUÂN  CẨM LỆ ĐN .</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1,3 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4302,45 +4302,45 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128367431.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128392633.htm</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ RIÊNG BIỆT MẶT TIỀN 8M ĐƯỜNG 5m5 ( đối diện trường học )</t>
+          <t>Chính chủ cho cho thuê phòng căn hộ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>3,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4353,19 +4353,19 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128365157.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128310448.htm</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ giá rẻ 41 Nguyễn Xuân Hữu, gần Ông Ích Đường, CMT8</t>
+          <t>Trọ Đà Nẵng Full nội thất- gần đại học kiến trúc</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1,7 triệu/tháng</t>
+          <t>4,49 triệu/tháng</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4375,16 +4375,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -4393,28 +4393,28 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126547864.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128382912.htm</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>🏡 HÒA AN 26 – 4 PHÒNG TRỌ – DÒNG TIỀN 7 TRIỆU/THÁNG 💰</t>
+          <t>Cho thuê căn hộ mini đường Bùi Vịnh, Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3,15 tỷ/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>83 m²</t>
+          <t>27 m²</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4424,11 +4424,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4437,38 +4437,38 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128339208.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128381967.htm</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>🌿✨ CHO THUÊ PHÒNG TRỌ / CĂN HỘ ✨🌿</t>
+          <t>PHÒNG TRỌ HÒA XUÂN</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>13 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4478,36 +4478,36 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128334166.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128056065.htm</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>🇻🇳CHO THUÊ 2 PHÒNG TRONG NHÀ NGUYÊN CĂN RỘNG THOÁNG</t>
+          <t>3 NAM 2007 TÌM 1 BẠN Ở GHÉP CÁCH ĐHKT 1,2KM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4529,34 +4529,34 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128332786.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128377616.htm</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ MINI CAO CẤP – NGŨ HÀNH SƠN, ĐÀ NẴNG 🌟</t>
+          <t>tìm người ở ghép cùng</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>1,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>10 m²</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4569,38 +4569,38 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127596982.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128367431.htm</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Mê Linh</t>
+          <t>CHO THUÊ NHÀ RIÊNG BIỆT MẶT TIỀN 8M ĐƯỜNG 5m5 ( đối diện trường học )</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4617,73 +4617,73 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128287577.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128365157.htm</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ</t>
+          <t>🏡 HÒA AN 26 – 4 PHÒNG TRỌ – DÒNG TIỀN 7 TRIỆU/THÁNG 💰</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>3,15 tỷ/tháng</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>83 m²</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127905777.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128339208.htm</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT MỚI 100% CÓ BAN CÔNG RỘNG THOÁNG MÁT</t>
+          <t>🌿✨ CHO THUÊ PHÒNG TRỌ / CĂN HỘ ✨🌿</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>13 m²</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4695,48 +4695,48 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128280184.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128334166.htm</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ GÁC LỬNG NGUYỄN NHƯ HẠNH GIẶT RIÊNG GẦN DUY TÂN</t>
+          <t>🇻🇳CHO THUÊ 2 PHÒNG TRONG NHÀ NGUYÊN CĂN RỘNG THOÁNG</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4,1 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -4749,38 +4749,38 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128272496.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128332786.htm</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHÍNH CHỦ CHO THUÊ PHÒNG – NGAY TRUNG TÂM ĐÀ NẴNG</t>
+          <t>CHO THUÊ CĂN HỘ MINI CAO CẤP – NGŨ HÀNH SƠN, ĐÀ NẴNG 🌟</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4793,24 +4793,24 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128269219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127596982.htm</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PHÒNG GÁC LỬNG FULL NỘI THẤT QUẬN LIÊN CHIỂU</t>
+          <t>Cho thuê phòng trọ đường Mê Linh</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4820,11 +4820,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4837,34 +4837,34 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128266832.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128287577.htm</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CĂN HỘ GÁC LỬNG CHO THUÊ TRUNG TÂM THÀNH PHỐ Ở ĐƯỢC 4 BẠN SV</t>
+          <t>Cho Thuê Phòng Trọ</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>8,5 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -4874,31 +4874,31 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127322953.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127905777.htm</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>cho thuê căn hộ mini 1 phòng ngủ</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT MỚI 100% CÓ BAN CÔNG RỘNG THOÁNG MÁT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4925,38 +4925,38 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127610219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128280184.htm</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cho thuê toà căn hộ 4 tầng 7 phòng đường Đoàn Khuê</t>
+          <t>CHO THUÊ PHÒNG TRỌ GÁC LỬNG NGUYỄN NHƯ HẠNH GIẶT RIÊNG GẦN DUY TÂN</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>28 triệu/tháng</t>
+          <t>4,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4969,38 +4969,38 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128235142.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128272496.htm</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>cho thuê nhà nguyên căn</t>
+          <t>CHÍNH CHỦ CHO THUÊ PHÒNG – NGAY TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>8,5 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>104 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -5009,33 +5009,33 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128230872.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128269219.htm</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cho thuê nhà khu vực quang châu hòa phước</t>
+          <t>PHÒNG GÁC LỬNG FULL NỘI THẤT QUẬN LIÊN CHIỂU</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1,7 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -5057,19 +5057,19 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128228939.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128266832.htm</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cần cho thê phòng trọ giá rẻ</t>
+          <t>cho thuê căn hộ mini 1 phòng ngủ</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5088,10 +5088,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -5101,29 +5101,29 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128227046.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127610219.htm</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Chính chủ cho thuê phòng trọ trên tầng</t>
+          <t>Cho thuê toà căn hộ 4 tầng 7 phòng đường Đoàn Khuê</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>28 triệu/tháng</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5132,37 +5132,37 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128223243.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128235142.htm</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Phòng trọ đường Hà Bổng</t>
+          <t>cho thuê nhà nguyên căn</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>8,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>104 m²</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5172,14 +5172,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -5189,78 +5189,78 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128217671.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128230872.htm</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GÁC LỬNG Ở ĐƯỢC 3 BẠN - ĐƯỜNG TRẦN NGỌC SƯƠNG - GẦN ĐÔNG Á KIẾN TRÚC</t>
+          <t>Cho thuê nhà khu vực quang châu hòa phước</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>1,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128189959.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128228939.htm</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Phòng Trọ Ngay Mặt Đường</t>
+          <t>Cần cho thê phòng trọ giá rẻ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5277,68 +5277,68 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128177160.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128227046.htm</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Phòng trọ/ Căn hộ</t>
+          <t>Chính chủ cho thuê phòng trọ trên tầng</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F111" t="n">
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128173132.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128223243.htm</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cho thuê 3 phòng 24m2 tầng 2&amp;3</t>
+          <t>Phòng trọ đường Hà Bổng</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3,3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5352,86 +5352,86 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128172121.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128217671.htm</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Trần Văn Thành - Ngũ Hành Sơn - Đà Nẵng</t>
+          <t>GÁC LỬNG Ở ĐƯỢC 3 BẠN - ĐƯỜNG TRẦN NGỌC SƯƠNG - GẦN ĐÔNG Á KIẾN TRÚC</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2,4 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128154852.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128189959.htm</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Cho nữ sinh viên thuê trọ</t>
+          <t>Phòng Trọ Ngay Mặt Đường</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -5453,24 +5453,24 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128098285.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128177160.htm</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Căn hộ studio cầu rồng</t>
+          <t>Phòng trọ/ Căn hộ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>5,5 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5480,14 +5480,14 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5497,29 +5497,29 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128082131.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128173132.htm</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ hòa khánh đà nẵng</t>
+          <t>Cho thuê 3 phòng 24m2 tầng 2&amp;3</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5528,47 +5528,47 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128062696.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128172121.htm</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>em cần tìm trọ gần đại học đông á ạ, 1 người ở nữ</t>
+          <t>Cho thuê phòng trọ đường Trần Văn Thành - Ngũ Hành Sơn - Đà Nẵng</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>2,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5585,38 +5585,38 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128057713.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128154852.htm</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cho thuê trọ gần ĐH Kiến trúc, Đông Á,  Đại việt, LotterMart</t>
+          <t>Cho nữ sinh viên thuê trọ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>14 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -5625,42 +5625,42 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128044952.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128098285.htm</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Phòng trọ 25m2 gần Bệnh viện Phụ sản - Nhi Đà Nẵng</t>
+          <t>Căn hộ studio cầu rồng</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>5,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5673,29 +5673,29 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128043795.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128082131.htm</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Phòng rẻ nhất Ngũ Hành Sơn</t>
+          <t>Cho thuê phòng trọ hòa khánh đà nẵng</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5704,91 +5704,91 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128016776.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128062696.htm</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Combo 2 phòng ngủ tầng 3 nhà MT số 299 Lê Duẩn, P. Tân Chính, Đà Nẵng</t>
+          <t>em cần tìm trọ gần đại học đông á ạ, 1 người ở nữ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127994757.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128057713.htm</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Phòng mới xây xong nội thất full mới ***</t>
+          <t>Cho thuê trọ gần ĐH Kiến trúc, Đông Á,  Đại việt, LotterMart</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>14 m²</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -5801,33 +5801,33 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127976873.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128044952.htm</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>cần thuê nhà</t>
+          <t>Phòng trọ 25m2 gần Bệnh viện Phụ sản - Nhi Đà Nẵng</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5849,24 +5849,24 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127973425.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128043795.htm</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cho Thuê Căn Hộ Duplex</t>
+          <t>Phòng rẻ nhất Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5880,32 +5880,32 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127919681.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128016776.htm</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Phòng 2 giường gần Châu Thị Vĩnh Tế có máy chiếu, bếp riêng</t>
+          <t>Combo 2 phòng ngủ tầng 3 nhà MT số 299 Lê Duẩn, P. Tân Chính, Đà Nẵng</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5915,46 +5915,46 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127951336.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127994757.htm</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SIÊU PHẨM GÁC LỬNG – HÒA PHÚ 24, LIÊN CHIỂU</t>
+          <t>Phòng mới xây xong nội thất full mới ***</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5964,11 +5964,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5981,29 +5981,29 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127928163.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127976873.htm</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trong nhà</t>
+          <t>cần thuê nhà</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>14 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6021,38 +6021,38 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127901711.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127973425.htm</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 80m2 gần công an phường Hoà Khánh</t>
+          <t>Cho Thuê Căn Hộ Duplex</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6069,29 +6069,29 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127855366.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127919681.htm</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cho Thuê trọ phòng khách sạn</t>
+          <t>Phòng 2 giường gần Châu Thị Vĩnh Tế có máy chiếu, bếp riêng</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6109,38 +6109,38 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127808442.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127951336.htm</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cho thuê phòng ngay trung tâm TP, sau lưng Đại Học Duy Tân</t>
+          <t>SIÊU PHẨM GÁC LỬNG – HÒA PHÚ 24, LIÊN CHIỂU</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4,15 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6153,42 +6153,42 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127805338.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127928163.htm</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ TẠI ĐA MẶN ĐÔNG 2</t>
+          <t>Cho thuê phòng trong nhà</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>14 m²</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -6197,38 +6197,38 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127764329.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127901711.htm</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ khu nhà 3 tầng khong chung chủ</t>
+          <t>Cho thuê nhà 80m2 gần công an phường Hoà Khánh</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6245,38 +6245,38 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127724483.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127855366.htm</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Dịch vụ Quản Lý Nhà Trọ – Căn Hộ Cho Thuê tại Ngũ Hành Sơn</t>
+          <t>Cho Thuê trọ phòng khách sạn</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -6289,38 +6289,38 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127719513.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127808442.htm</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>phòng trọ hà bổng</t>
+          <t>Cho thuê phòng ngay trung tâm TP, sau lưng Đại Học Duy Tân</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>4,15 triệu/tháng</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -6329,33 +6329,33 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127707666.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127805338.htm</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Nhà trọ cho sinh viên hoặc gia đình</t>
+          <t>CHO THUÊ CĂN HỘ TẠI ĐA MẶN ĐÔNG 2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>400000 đ/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6364,27 +6364,27 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127610942.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127764329.htm</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Nhượng phòng trọ</t>
+          <t>Cho thuê phòng trọ khu nhà 3 tầng khong chung chủ</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6394,17 +6394,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6421,24 +6421,24 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127689867.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127724483.htm</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>🏡 CĂN STUDIO MỚI CẢI TẠO – FULL NỘI THẤT – NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
+          <t>Dịch vụ Quản Lý Nhà Trọ – Căn Hộ Cho Thuê tại Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6448,31 +6448,31 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127624334.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127719513.htm</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>phòng trọ hà bổng</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6487,12 +6487,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6509,29 +6509,29 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127598181.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127707666.htm</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>phòng trọ 50m2 tại k94 nguyễn công trứ, p. an hải</t>
+          <t>Nhà trọ cho sinh viên hoặc gia đình</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>400000 đ/tháng</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6540,7 +6540,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -6549,23 +6549,23 @@
         <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127547468.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127610942.htm</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ gần trường đại học kinh tế</t>
+          <t>Nhượng phòng trọ</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6597,51 +6597,51 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127545749.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127689867.htm</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>cho thuê phòng chính chủ gần bách khoa cao đẳng kte kế hoạch,sư phạm</t>
+          <t>🏡 CĂN STUDIO MỚI CẢI TẠO – FULL NỘI THẤT – NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127474334.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127624334.htm</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6663,12 +6663,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -6685,85 +6685,85 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127523752.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127598181.htm</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>cho thuê phòng trọ 18m2( chứ kể gác lững) đường Tống Phước Phổ</t>
+          <t>phòng trọ 50m2 tại k94 nguyễn công trứ, p. an hải</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1,9 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127502036.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127547468.htm</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Hà Bổng, Q. Sơn Trà</t>
+          <t>Cho thuê phòng trọ gần trường đại học kinh tế</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6773,34 +6773,34 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127448559.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127545749.htm</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>cho thuê phòng chính chủ gần bách khoa cao đẳng kte kế hoạch,sư phạm</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -6813,38 +6813,38 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127421564.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127474334.htm</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Trọ Ngũ hành sơn</t>
+          <t>Cho thuê phòng trọ</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1,2 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -6861,19 +6861,19 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127419998.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127523752.htm</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ HOÀ PHƯỚC HOÀ VANG, TP ĐÀ NẴNG</t>
+          <t>cho thuê phòng trọ 18m2( chứ kể gác lững) đường Tống Phước Phổ</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>1,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6898,31 +6898,31 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127406115.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127502036.htm</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>cho thuê tháng</t>
+          <t>Cho thuê phòng trọ đường Hà Bổng, Q. Sơn Trà</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6949,49 +6949,225 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127403418.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127448559.htm</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>Cho thuê phòng trọ</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>4 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>27 m²</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Nội thất cao cấp</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127421564.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Trọ Ngũ hành sơn</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1,2 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>25 m²</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127419998.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>CHO THUÊ PHÒNG TRỌ HOÀ PHƯỚC HOÀ VANG, TP ĐÀ NẴNG</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1,8 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>18 m²</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Nhà trống</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127406115.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>cho thuê tháng</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>4,5 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>30 m²</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127403418.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
           <t>Phòng trọ sinh viên gần ĐH Ngoại Ngữ CS Lương Nhữ Hộc</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>4,5 triệu/tháng</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>20 m²</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Nội thất đầy đủ</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>https://www.nhatot.com/cho-thue-phong-tro/127388798.htm</t>
         </is>

--- a/nhatot_phongtro_danang_all.xlsx
+++ b/nhatot_phongtro_danang_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đầy đủ tiện nghi,khu ngã ba huế,bến xe</t>
+          <t>Phòng trọ giá rẻ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>1,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -525,68 +525,68 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128606799.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128632161.htm</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Châu Văn Liêm, gần Vũ Trường Phương Đông</t>
+          <t>cho thuê phòng trọ gia đình</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>32 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128605782.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128501768.htm</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG GẦN ĐH KINH TẾ ĐÀ NẴNG - Đ.Bà Huyện Thanh Quan</t>
+          <t>Phòng ban công full nội thất new 100% khu FPT - Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -600,51 +600,51 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128557590.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128629777.htm</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pass phòng trọ tầng 3 thang bộ ở 1219 Nguyễn Tất Thành  2tr7/1 tháng</t>
+          <t>CHO THUÊ PHÒNG RIÊNG – KHÔNG CHUNG CHỦ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2,7 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -657,34 +657,34 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128604416.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128629385.htm</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ 1 TRÊN DÃY PHÒNG TẦNG 3 VỆ SINH CHUNG</t>
+          <t>CHO THUÊ PHÒNG GẦN ĐH KINH TẾ ĐÀ NẴNG - Đ.Bà Huyện Thanh Quan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -697,23 +697,23 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128602465.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128557590.htm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ nữ</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -723,41 +723,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128576727.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128628625.htm</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>139 ngô quyền CHO THUÊ PHÒNG TRỌ</t>
+          <t>Cho Thuê Phòng Trọ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -767,16 +767,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128600298.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127905777.htm</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ CÓ NỘI THẤT CƠ BẢN KHU VỰC HOÀ XUÂN MỚI 100%</t>
+          <t>phòng trọ có bếp sân vườn rộng rãi gần cầu Hoà Xuân</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -816,14 +816,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -833,41 +833,41 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128598855.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128625256.htm</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG ĐẦY ĐỦ TIỆN NGHI , NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
+          <t>CHO THUÊ CĂN HỘ MỚI XÂY 100% - SỐ 17 CỒN DẦU 19 - HÒA XUÂN - CẨM LỆ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -877,29 +877,29 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128596813.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128248490.htm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phòng trọ gác lửng full nội thất ngay Ngã Ba Huế</t>
+          <t>phòng cho thuê tiện nfhi đầy đủ không nấu ăn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>22 m²</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -921,29 +921,29 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128222295.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127182585.htm</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PHÒNG SẠCH SẼ CHỈ 1.8TR TẦNG 2 MẶT TIỀN PHAN TRỌNG TUỆ</t>
+          <t>CHO THUÊ PHÒNG ĐẦY ĐỦ TIỆN NGHI , NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -965,34 +965,34 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128593359.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128596813.htm</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phòng trọ cho thuê gần KCN Hòa Cầm</t>
+          <t>💥💥💥💥💥Còn trống 1 phòng ***</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>600000 đ/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1002,41 +1002,41 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128591494.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128498042.htm</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cho thuê phòng trọ gia đình</t>
+          <t>CHO THUÊ NGUYÊN TẦNG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1049,38 +1049,38 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128501768.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128619762.htm</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cho thuê giường dorm</t>
+          <t>✅ KHAI TRƯƠNG TÒA CĂN HỘ MỚI 100% – NGÃ 3 HUẾ – CO THANG MÁY ✅</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>38 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1093,33 +1093,33 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126893939.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128617585.htm</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>phòng trọ cao cấp</t>
+          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 -𝗚𝗶𝗮́ 𝟯𝗧𝗿𝟯 - 𝗖𝗛𝗜̉ 𝗡𝗛𝗔̣̂𝗡 𝗡𝗨̛̃</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1137,82 +1137,82 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127030626.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128615830.htm</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cho thuê phòng full nội thất cao cấp</t>
+          <t>[ 𝗛𝗔̉𝗜 𝗖𝗛𝗔̂𝗨 ] 𝗣𝗛𝗢̀𝗡𝗚 𝗕𝗔𝗡 𝗖𝗢̂𝗡𝗚 - 𝗙𝗨𝗟𝗟 𝗡𝗢̣̂𝗜 𝗧𝗛𝗔̂́𝗧 - 𝗠𝗔́𝗬 𝗚𝗜𝗔̣̆𝗧 𝗙𝗥𝗘𝗘</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7,9 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128581505.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128615654.htm</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Phòng trọ hk bắc giá rẻ</t>
+          <t>Cho thuê phòng trọ (dành cho Nam)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,23 +1225,23 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128581332.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128612931.htm</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>🏡 PHÒNG GIÁ SINH VIÊN – NGUYỄN NHƯ HẠNH, LIÊN CHIỂU 🏡</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐH ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>4,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1251,16 +1251,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1273,29 +1273,29 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128575887.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128612419.htm</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cho thuê phòng điều hoà ở 3 đến 4 người</t>
+          <t>Cho thuê phòng đầy đủ tiện nghi,khu ngã ba huế,bến xe</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,24 +1317,24 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128109356.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128606799.htm</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🔥 NÚI THÀNH TRỐNG SẴN CĂN GÁC LỬNG 🔥</t>
+          <t>Cho thuê phòng trọ đường Châu Văn Liêm, gần Vũ Trường Phương Đông</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>32 m²</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1344,51 +1344,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128568689.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128605782.htm</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ MỚI XÂY 100% - SỐ 17 CỒN DẦU 19 - HÒA XUÂN - CẨM LỆ</t>
+          <t>Pass phòng trọ tầng 3 thang bộ ở 1219 Nguyễn Tất Thành  2tr7/1 tháng</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>2,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1405,34 +1405,34 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128248490.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128604416.htm</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ studio đường Trần Nhật Duật</t>
+          <t>CHO THUÊ PHÒNG TRỌ 1 TRÊN DÃY PHÒNG TẦNG 3 VỆ SINH CHUNG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5,8 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>17 m²</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1449,41 +1449,41 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128564714.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128602465.htm</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phòng trọ ở Ngũ Hành Sơn</t>
+          <t>PHÒNG TRỌ CÓ NỘI THẤT CƠ BẢN KHU VỰC HOÀ XUÂN MỚI 100%</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1493,19 +1493,19 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128564248.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128598855.htm</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>💥💥💥💥💥Còn trống 1 phòng ***</t>
+          <t>Phòng trọ gác lửng full nội thất ngay Ngã Ba Huế</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1530,26 +1530,26 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128498042.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128222295.htm</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phòng trọ 3 sao mới xây tiện nghi,đầy đủ thiết bị Nguyễn Duy Trinh</t>
+          <t>PHÒNG SẠCH SẼ CHỈ 1.8TR TẦNG 2 MẶT TIỀN PHAN TRỌNG TUỆ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1568,42 +1568,42 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127566741.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128593359.htm</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nhượng lại phòng trọ</t>
+          <t>Phòng trọ cho thuê gần KCN Hòa Cầm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>600000 đ/tháng</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1625,29 +1625,29 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128559019.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128591494.htm</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🌿 PHÒNG GIÁ SIÊU RẺ - FULL NỘI THẤT – ĐƯỜNG HÒA PHÚ 29, LIÊN CHIỂU 🌿</t>
+          <t>cho thuê giường dorm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6,3 triệu/tháng</t>
+          <t>1,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>38 m²</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1659,88 +1659,88 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128555922.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126893939.htm</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Căn hộ Nguyễn Thị Định cho thuê</t>
+          <t>phòng trọ cao cấp</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>27 m²</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128555766.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127030626.htm</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Phòng có ban công thoáng mát - Ngay cầu Rồng siêu tiện nghi</t>
+          <t>cho thuê phòng full nội thất cao cấp</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>7,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1757,14 +1757,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128544746.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128581505.htm</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cho thuê phòng giường tầng phòng dorm</t>
+          <t>Phòng trọ hk bắc giá rẻ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1801,19 +1801,19 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128128560.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128581332.htm</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MỚI XÂY THOÁNG MÁT, BAN CÔNG GẦN ĐH FPT</t>
+          <t>🏡 PHÒNG GIÁ SINH VIÊN – NGUYỄN NHƯ HẠNH, LIÊN CHIỂU 🏡</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3,1 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1845,19 +1845,19 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128543234.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128575887.htm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cho thuê Căn hộ mini 30m2 có 1 phòng ngủ riêng</t>
+          <t>Cho thuê phòng điều hoà ở 3 đến 4 người</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2,1 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1889,29 +1889,29 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128296377.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128109356.htm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>kím bạn nữ ở ghép</t>
+          <t>🔥 NÚI THÀNH TRỐNG SẴN CĂN GÁC LỬNG 🔥</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1,3 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1929,38 +1929,38 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128537507.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128568689.htm</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tôi cần bán dãy trọ 139m2 ngang 6m Nguyễn Lương Bằng sát ĐH Bách Khoa</t>
+          <t>Cho thuê căn hộ studio đường Trần Nhật Duật</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3,5 tỷ/tháng</t>
+          <t>5,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>139 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1977,19 +1977,19 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128059310.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128564714.htm</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Phòng trọ gác lửng mới hoàn toàn, Gần DH Bách Khoa, Sư Phạm</t>
+          <t>Phòng trọ ở Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2021,68 +2021,68 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127964619.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128564248.htm</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
+          <t>Phòng trọ 3 sao mới xây tiện nghi,đầy đủ thiết bị Nguyễn Duy Trinh</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128523320.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127566741.htm</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Phòng Full Nội Thất Khu FPT - Ngũ Hành Sơn</t>
+          <t>Nhượng lại phòng trọ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2109,24 +2109,24 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128025078.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128559019.htm</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GIÁ CHƯA TỚI 3TR NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
+          <t>🌿 PHÒNG GIÁ SIÊU RẺ - FULL NỘI THẤT – ĐƯỜNG HÒA PHÚ 29, LIÊN CHIỂU 🌿</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>6,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2140,42 +2140,42 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128520533.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128555922.htm</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT ĐỐI DIỆN ĐẠI HỌC FPT ĐI BỘ 3 PHÚT</t>
+          <t>Căn hộ Nguyễn Thị Định cho thuê</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2197,19 +2197,19 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128174992.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128555766.htm</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MỚI 100% GẦN ĐẠI HỌC ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
+          <t>Phòng có ban công thoáng mát - Ngay cầu Rồng siêu tiện nghi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4,1 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2241,19 +2241,19 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128174964.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128544746.htm</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>🚀 STUDIO RẺ NHẤT KHU HOÀ XUÂN – CHỈ 4.3 TRIỆU! 🌟</t>
+          <t>Cho thuê phòng giường tầng phòng dorm</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>1 triệu/tháng</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2285,24 +2285,24 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128519749.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128128560.htm</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐƯỜNG MINH MẠNG, CẦU TRUNG LƯƠNG</t>
+          <t>PHÒNG TRỌ MỚI XÂY THOÁNG MÁT, BAN CÔNG GẦN ĐH FPT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3,7 triệu/tháng</t>
+          <t>3,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2329,24 +2329,24 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128519512.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128543234.htm</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Căn hộ dịch vụ mini apartment Hòa Xuân Cẩm Lệ</t>
+          <t>Cho thuê Căn hộ mini 30m2 có 1 phòng ngủ riêng</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>2,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2356,11 +2356,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2369,28 +2369,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/122592431.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128296377.htm</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>căn duplex gần ĐH FPT, FPT Plaaza 1,2,3, việt hàn</t>
+          <t>kím bạn nữ ở ghép</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>1,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2417,29 +2417,29 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/123621254.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128537507.htm</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Phòng tầng 1 có bếp riêng, phòng ngủ riêng.</t>
+          <t>Tôi cần bán dãy trọ 139m2 ngang 6m Nguyễn Lương Bằng sát ĐH Bách Khoa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5,2 triệu/tháng</t>
+          <t>3,5 tỷ/tháng</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>139 m²</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2457,33 +2457,33 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128350810.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128059310.htm</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cho thuê Phòng trọ gần bến xe, đầy đủ tiện nghi như căn hộ mini</t>
+          <t>Phòng trọ gác lửng mới hoàn toàn, Gần DH Bách Khoa, Sư Phạm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2501,42 +2501,42 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128511955.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127964619.htm</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ mới xây - Cồn Dầu 19, Hoà Xuân</t>
+          <t>CHO THUÊ PHÒNG TRỌ NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2545,28 +2545,28 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128492279.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128523320.htm</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Phòng trọ tiện nghi, trung tâm Ngũ Hành Sơn</t>
+          <t>Phòng Full Nội Thất Khu FPT - Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2586,31 +2586,31 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128189660.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128025078.htm</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cho thuê phòng gác lửng đầy đủ nội thất gần Cầu vượt Ngã Ba Huế</t>
+          <t>GIÁ CHƯA TỚI 3TR NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2633,18 +2633,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128507241.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128520533.htm</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đủ nội thất gần Đại học FPT, giá sinh viên</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT ĐỐI DIỆN ĐẠI HỌC FPT ĐI BỘ 3 PHÚT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2681,19 +2681,19 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127354068.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128174992.htm</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>✅️KHAI TRƯƠNG TÒA CĂN HỘ MỚI XÂY,GẦN NGÃ 3 HUẾ, MẸ NHU,CÓ BAN CÔNG ✅️</t>
+          <t>PHÒNG TRỌ MỚI 100% GẦN ĐẠI HỌC ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>4,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2703,51 +2703,51 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128504393.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128174964.htm</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cho thuê Căn hộ, phòng trọ từ 17 -25m</t>
+          <t>🚀 STUDIO RẺ NHẤT KHU HOÀ XUÂN – CHỈ 4.3 TRIỆU! 🌟</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>17 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2769,19 +2769,19 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128341602.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128519749.htm</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗙𝘂𝗹𝗹 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 𝟭𝟬𝟬% 𝗚𝗶𝗮́ 𝗧𝘂̛̀ 𝟮𝗧𝗿𝟯</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐƯỜNG MINH MẠNG, CẦU TRUNG LƯƠNG</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>3,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2791,60 +2791,60 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128498919.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128519512.htm</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>Căn hộ dịch vụ mini apartment Hòa Xuân Cẩm Lệ</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2853,33 +2853,33 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128494623.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/122592431.htm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PHÒNG GÁC LỬNG CÓ BAN CÔNG HÒA XUÂN GIÁ CHỈ 4,3 TRIỆU</t>
+          <t>căn duplex gần ĐH FPT, FPT Plaaza 1,2,3, việt hàn</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2888,37 +2888,37 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128493015.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/123621254.htm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>trọ khái tây 2 hoà quý</t>
+          <t>Phòng tầng 1 có bếp riêng, phòng ngủ riêng.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>5,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2935,39 +2935,39 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128489193.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128350810.htm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN STUDIO - NGŨ HÀNH SƠN</t>
+          <t>Cho thuê Phòng trọ gần bến xe, đầy đủ tiện nghi như căn hộ mini</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6,2 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2982,109 +2982,109 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128488165.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128511955.htm</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Phòng trọ tại 8x Nguyễn Lộ Trạch, 4,5 triệu, 20m2, view đẹp</t>
+          <t>Cho thuê căn hộ mới xây - Cồn Dầu 19, Hoà Xuân</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128485470.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128492279.htm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PASS CĂN HỘ ĐƯỜNG TRƯƠNG QUANG GIAO-CẨM LỆ THÁNG 11 CÓ THỂ CHUYỂN VÀO</t>
+          <t>Phòng trọ tiện nghi, trung tâm Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128479841.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128189660.htm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG GÁC LỬNG CÓ NỘI THẤT NGAY BẾN XE ĐẦY ĐỦ TIỆN NGHI</t>
+          <t>Cho thuê phòng gác lửng đầy đủ nội thất gần Cầu vượt Ngã Ba Huế</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3121,14 +3121,14 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128472157.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128507241.htm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cho thuê căn gác lửng ngay ngã ba Huế</t>
+          <t>Cho thuê phòng đủ nội thất gần Đại học FPT, giá sinh viên</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3165,68 +3165,68 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128470639.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127354068.htm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tìm bạn ở ghép ( nam) ở lâu dài càng tốt</t>
+          <t>✅️KHAI TRƯƠNG TÒA CĂN HỘ MỚI XÂY,GẦN NGÃ 3 HUẾ, MẸ NHU,CÓ BAN CÔNG ✅️</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1,25 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128470096.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128504393.htm</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>🌿 Phòng full nội thất khu FPT City – Ngũ Hành Sơn, Đà Nẵng 🌿</t>
+          <t>Cho thuê Căn hộ, phòng trọ từ 17 -25m</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>17 m²</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -3253,117 +3253,117 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128469665.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128341602.htm</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đầy đủ nội thất ngay bãi tắm Sơn Thủy</t>
+          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗙𝘂𝗹𝗹 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 𝟭𝟬𝟬% 𝗚𝗶𝗮́ 𝗧𝘂̛̀ 𝟮𝗧𝗿𝟯</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128106151.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128498919.htm</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>phòng trọ khái tây 2 hoà quý Đà Nẵng</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126678097.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128494623.htm</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>phòng trung tâm đầy đủ tiện nghi, Nguyễn Văn Linh gần sân bay</t>
+          <t>PHÒNG GÁC LỬNG CÓ BAN CÔNG HÒA XUÂN GIÁ CHỈ 4,3 TRIỆU</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3378,133 +3378,133 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128463693.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128493015.htm</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Phòng trọ yên khê 1</t>
+          <t>trọ khái tây 2 hoà quý</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2,6 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128456987.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128489193.htm</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Khai trương phòng trọ có gác lững mới, có điều hoà, nóng lạnh, tủ bếp</t>
+          <t>CHO THUÊ CĂN STUDIO - NGŨ HÀNH SƠN</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>6,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128450627.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128488165.htm</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Tìm nữ ở ghép phòng ban công trong nhà nguyên căn</t>
+          <t>Phòng trọ tại 8x Nguyễn Lộ Trạch, 4,5 triệu, 20m2, view đẹp</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3517,29 +3517,29 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128445761.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128485470.htm</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Mời bạn về nhà</t>
+          <t>PASS CĂN HỘ ĐƯỜNG TRƯƠNG QUANG GIAO-CẨM LỆ THÁNG 11 CÓ THỂ CHUYỂN VÀO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4,88 triệu/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>38.7999 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3554,26 +3554,26 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128393818.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128479841.htm</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ cao cấp giá sinh viên</t>
+          <t>CHO THUÊ PHÒNG GÁC LỬNG CÓ NỘI THẤT NGAY BẾN XE ĐẦY ĐỦ TIỆN NGHI</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5,5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3583,16 +3583,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3605,24 +3605,24 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436792.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128472157.htm</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🌿 Phòng trọ siêu thoáng Hòa Phú 29 – Liên Chiểu, Đà Nẵng 🌿</t>
+          <t>Cho thuê căn gác lửng ngay ngã ba Huế</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3632,36 +3632,36 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436712.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128470639.htm</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>✨ Phòng trọ full nội thất Hòa Phú 29 – Liên Chiểu, Đà Nẵng ✨</t>
+          <t>Tìm bạn ở ghép ( nam) ở lâu dài càng tốt</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>1,25 triệu/tháng</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3671,16 +3671,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3693,19 +3693,19 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436652.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128470096.htm</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>✨ Phòng trọ full nội thất Hòa Phú 29 - có ban công – Liên Chiểu✨</t>
+          <t>🌿 Phòng full nội thất khu FPT City – Ngũ Hành Sơn, Đà Nẵng 🌿</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3730,41 +3730,41 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436387.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128469665.htm</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ điều hoà  21/10/2025 dọn vào ở ngay</t>
+          <t>Cho thuê phòng đầy đủ nội thất ngay bãi tắm Sơn Thủy</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3774,36 +3774,36 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127450726.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128106151.htm</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>phòng cho thuê trọ</t>
+          <t>phòng trọ khái tây 2 hoà quý Đà Nẵng</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2,9 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3821,23 +3821,23 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128432453.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126678097.htm</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Pass phòng ạ, KĐT FPT, ở được 4 người, cho nuôi pet</t>
+          <t>phòng trung tâm đầy đủ tiện nghi, Nguyễn Văn Linh gần sân bay</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3847,12 +3847,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3865,23 +3865,23 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128430121.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128463693.htm</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ gác lững đường Hoàng Minh Thảo, bên cạnh ĐH Duy Tân</t>
+          <t>Phòng trọ yên khê 1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>2,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3891,51 +3891,51 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128423703.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128456987.htm</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cần nữ ở ghép phòng đầy đủ tiện nghi tại Hoà Minh, Liên Chiểu giá tốt</t>
+          <t>Khai trương phòng trọ có gác lững mới, có điều hoà, nóng lạnh, tủ bếp</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3944,32 +3944,32 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128420144.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128450627.htm</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ giá tốt gần ĐH Đông Á, Kiến Trúc</t>
+          <t>Tìm nữ ở ghép phòng ban công trong nhà nguyên căn</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3979,19 +3979,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4001,19 +4001,19 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128419135.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128445761.htm</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>Cho thuê căn hộ cao cấp giá sinh viên</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>5,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4045,24 +4045,24 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128406556.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436792.htm</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Tôi cần bán phòng trọ 168m2, Thanh Vinh12 , quận Liên Chiểu, Đà Nẵng</t>
+          <t>🌿 Phòng trọ siêu thoáng Hòa Phú 29 – Liên Chiểu, Đà Nẵng 🌿</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4,4 tỷ/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>168 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4072,36 +4072,36 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128404258.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436712.htm</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Phòng trọ mới xây Núi Thành ngay quảng trường 2/9 từ 3tr5 đến 4tr2</t>
+          <t>✨ Phòng trọ full nội thất Hòa Phú 29 – Liên Chiểu, Đà Nẵng ✨</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4129,62 +4129,62 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128403387.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436652.htm</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Em cần tìm trọ khu vực cẩm lệ Đà Nẵng ạ ai có liên hê em liền nha</t>
+          <t>✨ Phòng trọ full nội thất Hòa Phú 29 - có ban công – Liên Chiểu✨</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128402676.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436387.htm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>Cho thuê phòng trọ điều hoà  21/10/2025 dọn vào ở ngay</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4194,17 +4194,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>22 m²</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4214,36 +4214,36 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128398809.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127450726.htm</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ 25/30 Lý Thường Kiệt, TTTP Đà Nẵng</t>
+          <t>phòng cho thuê trọ</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4265,68 +4265,68 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128395266.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128432453.htm</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MẶT TIỀN  ,GIÁ RẺ HÒA XUÂN  CẨM LỆ ĐN .</t>
+          <t>Pass phòng ạ, KĐT FPT, ở được 4 người, cho nuôi pet</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128392633.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128430121.htm</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Chính chủ cho cho thuê phòng căn hộ</t>
+          <t>Cho Thuê Phòng Trọ gác lững đường Hoàng Minh Thảo, bên cạnh ĐH Duy Tân</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3,7 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4336,75 +4336,75 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128310448.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128423703.htm</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Trọ Đà Nẵng Full nội thất- gần đại học kiến trúc</t>
+          <t>Cần nữ ở ghép phòng đầy đủ tiện nghi tại Hoà Minh, Liên Chiểu giá tốt</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4,49 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128382912.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128420144.htm</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ mini đường Bùi Vịnh, Cẩm Lệ, Đà Nẵng</t>
+          <t>Cho thuê phòng trọ giá tốt gần ĐH Đông Á, Kiến Trúc</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4414,21 +4414,21 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -4441,34 +4441,34 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128381967.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128419135.htm</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ HÒA XUÂN</t>
+          <t>Tôi cần bán phòng trọ 168m2, Thanh Vinh12 , quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>4,4 tỷ/tháng</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>168 m²</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4481,38 +4481,38 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128056065.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128404258.htm</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3 NAM 2007 TÌM 1 BẠN Ở GHÉP CÁCH ĐHKT 1,2KM</t>
+          <t>Phòng trọ mới xây Núi Thành ngay quảng trường 2/9 từ 3tr5 đến 4tr2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4522,31 +4522,31 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128377616.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128403387.htm</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>tìm người ở ghép cùng</t>
+          <t>Em cần tìm trọ khu vực cẩm lệ Đà Nẵng ạ ai có liên hê em liền nha</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1,3 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4573,34 +4573,34 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128367431.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128402676.htm</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ RIÊNG BIỆT MẶT TIỀN 8M ĐƯỜNG 5m5 ( đối diện trường học )</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4617,24 +4617,24 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128365157.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128398809.htm</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>🏡 HÒA AN 26 – 4 PHÒNG TRỌ – DÒNG TIỀN 7 TRIỆU/THÁNG 💰</t>
+          <t>PHÒNG TRỌ MẶT TIỀN  ,GIÁ RẺ HÒA XUÂN  CẨM LỆ ĐN .</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3,15 tỷ/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>83 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4654,31 +4654,31 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128339208.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128392633.htm</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>🌿✨ CHO THUÊ PHÒNG TRỌ / CĂN HỘ ✨🌿</t>
+          <t>Chính chủ cho cho thuê phòng căn hộ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>3,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>13 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4688,41 +4688,41 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128334166.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128310448.htm</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>🇻🇳CHO THUÊ 2 PHÒNG TRONG NHÀ NGUYÊN CĂN RỘNG THOÁNG</t>
+          <t>Trọ Đà Nẵng Full nội thất- gần đại học kiến trúc</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>4,49 triệu/tháng</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -4745,18 +4745,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128332786.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128382912.htm</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ MINI CAO CẤP – NGŨ HÀNH SƠN, ĐÀ NẴNG 🌟</t>
+          <t>Cho thuê căn hộ mini đường Bùi Vịnh, Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4766,21 +4766,21 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>27 m²</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4793,29 +4793,29 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127596982.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128381967.htm</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Mê Linh</t>
+          <t>3 NAM 2007 TÌM 1 BẠN Ở GHÉP CÁCH ĐHKT 1,2KM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4837,68 +4837,68 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128287577.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128377616.htm</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ</t>
+          <t>tìm người ở ghép cùng</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>1,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>10 m²</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127905777.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128367431.htm</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT MỚI 100% CÓ BAN CÔNG RỘNG THOÁNG MÁT</t>
+          <t>CHO THUÊ NHÀ RIÊNG BIỆT MẶT TIỀN 8M ĐƯỜNG 5m5 ( đối diện trường học )</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4908,14 +4908,14 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4925,29 +4925,29 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128280184.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128365157.htm</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ GÁC LỬNG NGUYỄN NHƯ HẠNH GIẶT RIÊNG GẦN DUY TÂN</t>
+          <t>🏡 HÒA AN 26 – 4 PHÒNG TRỌ – DÒNG TIỀN 7 TRIỆU/THÁNG 💰</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>4,1 triệu/tháng</t>
+          <t>3,15 tỷ/tháng</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>83 m²</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4969,29 +4969,29 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128272496.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128339208.htm</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CHÍNH CHỦ CHO THUÊ PHÒNG – NGAY TRUNG TÂM ĐÀ NẴNG</t>
+          <t>🌿✨ CHO THUÊ PHÒNG TRỌ / CĂN HỘ ✨🌿</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>13 m²</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5000,51 +5000,51 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128269219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128334166.htm</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PHÒNG GÁC LỬNG FULL NỘI THẤT QUẬN LIÊN CHIỂU</t>
+          <t>🇻🇳CHO THUÊ 2 PHÒNG TRONG NHÀ NGUYÊN CĂN RỘNG THOÁNG</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -5057,73 +5057,73 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128266832.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128332786.htm</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>cho thuê căn hộ mini 1 phòng ngủ</t>
+          <t>CHO THUÊ CĂN HỘ MINI CAO CẤP – NGŨ HÀNH SƠN, ĐÀ NẴNG 🌟</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127610219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127596982.htm</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cho thuê toà căn hộ 4 tầng 7 phòng đường Đoàn Khuê</t>
+          <t>CHÍNH CHỦ CHO THUÊ PHÒNG – NGAY TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>28 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -5141,45 +5141,45 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128235142.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128269219.htm</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>cho thuê nhà nguyên căn</t>
+          <t>cho thuê căn hộ mini 1 phòng ngủ</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>8,5 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>104 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -5189,19 +5189,19 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128230872.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127610219.htm</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cho thuê nhà khu vực quang châu hòa phước</t>
+          <t>Cho thuê toà căn hộ 4 tầng 7 phòng đường Đoàn Khuê</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1,7 triệu/tháng</t>
+          <t>28 triệu/tháng</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5211,12 +5211,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5233,34 +5233,34 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128228939.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128235142.htm</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cần cho thê phòng trọ giá rẻ</t>
+          <t>cho thuê nhà nguyên căn</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>8,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>104 m²</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5277,73 +5277,73 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128227046.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128230872.htm</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Chính chủ cho thuê phòng trọ trên tầng</t>
+          <t>Cho thuê nhà khu vực quang châu hòa phước</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128223243.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128228939.htm</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Phòng trọ đường Hà Bổng</t>
+          <t>Cần cho thê phòng trọ giá rẻ</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5365,29 +5365,29 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128217671.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128227046.htm</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GÁC LỬNG Ở ĐƯỢC 3 BẠN - ĐƯỜNG TRẦN NGỌC SƯƠNG - GẦN ĐÔNG Á KIẾN TRÚC</t>
+          <t>Chính chủ cho thuê phòng trọ trên tầng</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5409,41 +5409,41 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128189959.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128223243.htm</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Phòng Trọ Ngay Mặt Đường</t>
+          <t>Phòng trọ đường Hà Bổng</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5453,117 +5453,117 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128177160.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128217671.htm</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Phòng trọ/ Căn hộ</t>
+          <t>GÁC LỬNG Ở ĐƯỢC 3 BẠN - ĐƯỜNG TRẦN NGỌC SƯƠNG - GẦN ĐÔNG Á KIẾN TRÚC</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128173132.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128189959.htm</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cho thuê 3 phòng 24m2 tầng 2&amp;3</t>
+          <t>Phòng Trọ Ngay Mặt Đường</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3,3 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128172121.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128177160.htm</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Trần Văn Thành - Ngũ Hành Sơn - Đà Nẵng</t>
+          <t>Phòng trọ/ Căn hộ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2,4 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5585,24 +5585,24 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128154852.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128173132.htm</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cho nữ sinh viên thuê trọ</t>
+          <t>Cho thuê 3 phòng 24m2 tầng 2&amp;3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -5622,45 +5622,45 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128098285.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128172121.htm</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Căn hộ studio cầu rồng</t>
+          <t>Cho thuê phòng trọ đường Trần Văn Thành - Ngũ Hành Sơn - Đà Nẵng</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5,5 triệu/tháng</t>
+          <t>2,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5673,82 +5673,82 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128082131.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128154852.htm</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ hòa khánh đà nẵng</t>
+          <t>Cho nữ sinh viên thuê trọ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128062696.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128098285.htm</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>em cần tìm trọ gần đại học đông á ạ, 1 người ở nữ</t>
+          <t>Căn hộ studio cầu rồng</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>5,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5761,41 +5761,41 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128057713.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128082131.htm</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cho thuê trọ gần ĐH Kiến trúc, Đông Á,  Đại việt, LotterMart</t>
+          <t>Cho thuê phòng trọ hòa khánh đà nẵng</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>14 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5805,34 +5805,34 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128044952.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128062696.htm</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Phòng trọ 25m2 gần Bệnh viện Phụ sản - Nhi Đà Nẵng</t>
+          <t>em cần tìm trọ gần đại học đông á ạ, 1 người ở nữ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -5849,73 +5849,73 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128043795.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128057713.htm</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Phòng rẻ nhất Ngũ Hành Sơn</t>
+          <t>Cho thuê trọ gần ĐH Kiến trúc, Đông Á,  Đại việt, LotterMart</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>14 m²</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128016776.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128044952.htm</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Combo 2 phòng ngủ tầng 3 nhà MT số 299 Lê Duẩn, P. Tân Chính, Đà Nẵng</t>
+          <t>Phòng trọ 25m2 gần Bệnh viện Phụ sản - Nhi Đà Nẵng</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5924,42 +5924,42 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127994757.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128043795.htm</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Phòng mới xây xong nội thất full mới ***</t>
+          <t>Phòng rẻ nhất Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5968,42 +5968,42 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127976873.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128016776.htm</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>cần thuê nhà</t>
+          <t>Combo 2 phòng ngủ tầng 3 nhà MT số 299 Lê Duẩn, P. Tân Chính, Đà Nẵng</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6012,42 +6012,42 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127973425.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127994757.htm</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cho Thuê Căn Hộ Duplex</t>
+          <t>Phòng mới xây xong nội thất full mới ***</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6069,38 +6069,38 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127919681.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127976873.htm</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Phòng 2 giường gần Châu Thị Vĩnh Tế có máy chiếu, bếp riêng</t>
+          <t>cần thuê nhà</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -6109,23 +6109,23 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127951336.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127973425.htm</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SIÊU PHẨM GÁC LỬNG – HÒA PHÚ 24, LIÊN CHIỂU</t>
+          <t>Cho Thuê Căn Hộ Duplex</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6135,16 +6135,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -6157,38 +6157,38 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127928163.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127919681.htm</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trong nhà</t>
+          <t>Phòng 2 giường gần Châu Thị Vĩnh Tế có máy chiếu, bếp riêng</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>14 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -6201,24 +6201,24 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127901711.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127951336.htm</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 80m2 gần công an phường Hoà Khánh</t>
+          <t>SIÊU PHẨM GÁC LỬNG – HÒA PHÚ 24, LIÊN CHIỂU</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6228,11 +6228,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -6245,38 +6245,38 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127855366.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127928163.htm</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cho Thuê trọ phòng khách sạn</t>
+          <t>Cho thuê phòng trong nhà</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>14 m²</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -6285,42 +6285,42 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127808442.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127901711.htm</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cho thuê phòng ngay trung tâm TP, sau lưng Đại Học Duy Tân</t>
+          <t>Cho thuê nhà 80m2 gần công an phường Hoà Khánh</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4,15 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -6329,33 +6329,33 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127805338.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127855366.htm</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ TẠI ĐA MẶN ĐÔNG 2</t>
+          <t>Cho Thuê trọ phòng khách sạn</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6377,29 +6377,29 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127764329.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127808442.htm</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ khu nhà 3 tầng khong chung chủ</t>
+          <t>Cho thuê phòng ngay trung tâm TP, sau lưng Đại Học Duy Tân</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4,15 triệu/tháng</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6408,7 +6408,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -6417,28 +6417,28 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127724483.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127805338.htm</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Dịch vụ Quản Lý Nhà Trọ – Căn Hộ Cho Thuê tại Ngũ Hành Sơn</t>
+          <t>CHO THUÊ CĂN HỘ TẠI ĐA MẶN ĐÔNG 2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6448,11 +6448,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -6465,19 +6465,19 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127719513.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127764329.htm</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>phòng trọ hà bổng</t>
+          <t>Cho thuê phòng trọ khu nhà 3 tầng khong chung chủ</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6509,34 +6509,34 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127707666.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127724483.htm</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Nhà trọ cho sinh viên hoặc gia đình</t>
+          <t>Dịch vụ Quản Lý Nhà Trọ – Căn Hộ Cho Thuê tại Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>400000 đ/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -6546,41 +6546,41 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127610942.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127719513.htm</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Nhượng phòng trọ</t>
+          <t>phòng trọ hà bổng</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -6597,29 +6597,29 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127689867.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127707666.htm</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>🏡 CĂN STUDIO MỚI CẢI TẠO – FULL NỘI THẤT – NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
+          <t>Nhà trọ cho sinh viên hoặc gia đình</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>400000 đ/tháng</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -6637,28 +6637,28 @@
         <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127624334.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127610942.htm</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>Nhượng phòng trọ</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -6685,29 +6685,29 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127598181.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127689867.htm</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>phòng trọ 50m2 tại k94 nguyễn công trứ, p. an hải</t>
+          <t>🏡 CĂN STUDIO MỚI CẢI TẠO – FULL NỘI THẤT – NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6729,34 +6729,34 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127547468.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127624334.htm</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ gần trường đại học kinh tế</t>
+          <t>Cho thuê phòng trọ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -6773,73 +6773,73 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127545749.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127598181.htm</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>cho thuê phòng chính chủ gần bách khoa cao đẳng kte kế hoạch,sư phạm</t>
+          <t>phòng trọ 50m2 tại k94 nguyễn công trứ, p. an hải</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127474334.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127547468.htm</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>Cho thuê phòng trọ gần trường đại học kinh tế</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6861,19 +6861,19 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127523752.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127545749.htm</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>cho thuê phòng trọ 18m2( chứ kể gác lững) đường Tống Phước Phổ</t>
+          <t>cho thuê phòng chính chủ gần bách khoa cao đẳng kte kế hoạch,sư phạm</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1,9 triệu/tháng</t>
+          <t>1,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6901,45 +6901,45 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127502036.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127474334.htm</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Hà Bổng, Q. Sơn Trà</t>
+          <t>Cho thuê phòng trọ</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F148" t="n">
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6949,34 +6949,34 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127448559.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127523752.htm</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>cho thuê phòng trọ 18m2( chứ kể gác lững) đường Tống Phước Phổ</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -6993,19 +6993,19 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127421564.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127502036.htm</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Trọ Ngũ hành sơn</t>
+          <t>Cho thuê phòng trọ đường Hà Bổng, Q. Sơn Trà</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1,2 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7015,19 +7015,19 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -7037,34 +7037,34 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127419998.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127448559.htm</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ HOÀ PHƯỚC HOÀ VANG, TP ĐÀ NẴNG</t>
+          <t>Cho thuê phòng trọ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>27 m²</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -7074,41 +7074,41 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127406115.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127421564.htm</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cho thuê tháng</t>
+          <t>CHO THUÊ PHÒNG TRỌ HOÀ PHƯỚC HOÀ VANG, TP ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7118,56 +7118,100 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127403418.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127406115.htm</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>cho thuê tháng</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>4,5 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>30 m²</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127403418.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
           <t>Phòng trọ sinh viên gần ĐH Ngoại Ngữ CS Lương Nhữ Hộc</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>4,5 triệu/tháng</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>20 m²</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Nội thất đầy đủ</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>https://www.nhatot.com/cho-thue-phong-tro/127388798.htm</t>
         </is>

--- a/nhatot_phongtro_danang_all.xlsx
+++ b/nhatot_phongtro_danang_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phòng trọ giá rẻ</t>
+          <t>CHO THUÊ CĂN HỘ MỚI XÂY 100% - SỐ 17 CỒN DẦU 19 - HÒA XUÂN - CẨM LỆ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,1 triệu/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,11 +508,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -525,34 +525,34 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128632161.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128248490.htm</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cho thuê phòng trọ gia đình</t>
+          <t>Phòng trọ giá rẻ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>1,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -569,73 +569,73 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128501768.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128632161.htm</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phòng ban công full nội thất new 100% khu FPT - Ngũ Hành Sơn</t>
+          <t>cho thuê phòng trọ gia đình</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128629777.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128501768.htm</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG RIÊNG – KHÔNG CHUNG CHỦ</t>
+          <t>CHÍNH  CHỦ CHO THUÊ PHÒNG - 256 HOÀNG DIỆU - CẦU RỒNG 2.3 TR - FULL ĐỒ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -657,29 +657,29 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128629385.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128652772.htm</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG GẦN ĐH KINH TẾ ĐÀ NẴNG - Đ.Bà Huyện Thanh Quan</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT MỚI 100% CÓ BAN CÔNG RỘNG THOÁNG MÁT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -691,39 +691,39 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128557590.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128280184.htm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>CHÍNH CHỦ CHO THUÊ PHÒNG - 356 HOÀNG DIỆU GIÁ 2.5 TRIỆU KÉP KÍN - FULL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128628625.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128652173.htm</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ</t>
+          <t>Cho thuê phòng gần bến xe , FPT duy tân thương mại bách khoa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -772,46 +772,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127905777.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128650950.htm</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>phòng trọ có bếp sân vườn rộng rãi gần cầu Hoà Xuân</t>
+          <t>Cho thuê phòng  rộng  ở 4 người hoặc giá đình gần bến xe , cầu vưotj</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2,2 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -833,29 +833,29 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128625256.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128650832.htm</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ MỚI XÂY 100% - SỐ 17 CỒN DẦU 19 - HÒA XUÂN - CẨM LỆ</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -870,41 +870,41 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128248490.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128628625.htm</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>phòng cho thuê tiện nfhi đầy đủ không nấu ăn</t>
+          <t>Cho thuê căn hộ mới xây đường Cồn Dầu 19, Hoà Xuân</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -921,41 +921,41 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127182585.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128648321.htm</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG ĐẦY ĐỦ TIỆN NGHI , NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
+          <t>Cho thuê nhà trọ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -965,24 +965,24 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128596813.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128646450.htm</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>💥💥💥💥💥Còn trống 1 phòng ***</t>
+          <t>Phòng Full Nội Thất Khu FPT - Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -996,47 +996,47 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128498042.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128025078.htm</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHO THUÊ NGUYÊN TẦNG</t>
+          <t>phòng cho thuê tiện nfhi đầy đủ không nấu ăn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>22 m²</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1049,77 +1049,77 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128619762.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127182585.htm</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>✅ KHAI TRƯƠNG TÒA CĂN HỘ MỚI 100% – NGÃ 3 HUẾ – CO THANG MÁY ✅</t>
+          <t>E cần tìm trọ có gác lửng 2tr đổ về ở một người ở gần DHduy tân</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128617585.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128643773.htm</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 -𝗚𝗶𝗮́ 𝟯𝗧𝗿𝟯 - 𝗖𝗛𝗜̉ 𝗡𝗛𝗔̣̂𝗡 𝗡𝗨̛̃</t>
+          <t>CHO THUÊ PHÒNG ĐẦY ĐỦ TIỆN NGHI , NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3,3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1128,81 +1128,81 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128615830.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128596813.htm</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[ 𝗛𝗔̉𝗜 𝗖𝗛𝗔̂𝗨 ] 𝗣𝗛𝗢̀𝗡𝗚 𝗕𝗔𝗡 𝗖𝗢̂𝗡𝗚 - 𝗙𝗨𝗟𝗟 𝗡𝗢̣̂𝗜 𝗧𝗛𝗔̂́𝗧 - 𝗠𝗔́𝗬 𝗚𝗜𝗔̣̆𝗧 𝗙𝗥𝗘𝗘</t>
+          <t>phòng trọ sinh viên, công nhân giá rẻ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128615654.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128642649.htm</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ (dành cho Nam)</t>
+          <t>Phòng trọ 15m2 gần chợ Khái Tây</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1225,38 +1225,38 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128612931.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128641538.htm</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐH ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
+          <t>PHÒNG TRỌ 1 NGƯỜI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4,4 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1273,126 +1273,126 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128612419.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127733202.htm</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đầy đủ tiện nghi,khu ngã ba huế,bến xe</t>
+          <t>Phòng Trọ Cho Thuê - 12/9 Lý Thường Kiệt, Q.Hải Châu, Tp.Đà Nẵng</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128606799.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128635892.htm</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Châu Văn Liêm, gần Vũ Trường Phương Đông</t>
+          <t>PHÒNG TRỌ GÁC LỬNG MỚI NGAY ĐẠI HỌC FPT VIỆT HÀN - ĐƯỜNG MAI ĐĂNG CHƠN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>32 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128605782.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128635120.htm</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pass phòng trọ tầng 3 thang bộ ở 1219 Nguyễn Tất Thành  2tr7/1 tháng</t>
+          <t>Cho thuê phòng Xịn giá rẻ ở Cẩm Lệ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2,7 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1405,41 +1405,41 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128604416.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128635113.htm</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ 1 TRÊN DÃY PHÒNG TẦNG 3 VỆ SINH CHUNG</t>
+          <t>Phòng trọ mặt tiền đường Trần Đại Nghĩa đầy đủ tiện nghi có thang máy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1449,29 +1449,29 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128602465.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128633466.htm</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ CÓ NỘI THẤT CƠ BẢN KHU VỰC HOÀ XUÂN MỚI 100%</t>
+          <t>Cho thuê phòng 3tr/tháng đường Sơn Thủy Đông 3 25m2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1480,42 +1480,42 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128598855.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128632826.htm</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Phòng trọ gác lửng full nội thất ngay Ngã Ba Huế</t>
+          <t>Phòng ban công full nội thất new 100% khu FPT - Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1524,47 +1524,47 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128222295.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128629777.htm</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PHÒNG SẠCH SẼ CHỈ 1.8TR TẦNG 2 MẶT TIỀN PHAN TRỌNG TUỆ</t>
+          <t>CHO THUÊ PHÒNG GẦN ĐH KINH TẾ ĐÀ NẴNG - Đ.Bà Huyện Thanh Quan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1577,170 +1577,170 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128593359.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128557590.htm</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phòng trọ cho thuê gần KCN Hòa Cầm</t>
+          <t>Cho Thuê Phòng Trọ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>600000 đ/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128591494.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127905777.htm</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cho thuê giường dorm</t>
+          <t>phòng trọ có bếp sân vườn rộng rãi gần cầu Hoà Xuân</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>2,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>38 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126893939.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128625256.htm</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>phòng trọ cao cấp</t>
+          <t>💥💥💥💥💥Còn trống 1 phòng ***</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127030626.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128498042.htm</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cho thuê phòng full nội thất cao cấp</t>
+          <t>CHO THUÊ NGUYÊN TẦNG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7,9 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1753,28 +1753,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128581505.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128619762.htm</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Phòng trọ hk bắc giá rẻ</t>
+          <t>✅ KHAI TRƯƠNG TÒA CĂN HỘ MỚI 100% – NGÃ 3 HUẾ – CO THANG MÁY ✅</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1784,46 +1784,46 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128581332.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128617585.htm</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>🏡 PHÒNG GIÁ SINH VIÊN – NGUYỄN NHƯ HẠNH, LIÊN CHIỂU 🏡</t>
+          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 -𝗚𝗶𝗮́ 𝟯𝗧𝗿𝟯 - 𝗖𝗛𝗜̉ 𝗡𝗛𝗔̣̂𝗡 𝗡𝗨̛̃</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>3,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1835,29 +1835,29 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128575887.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128615830.htm</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cho thuê phòng điều hoà ở 3 đến 4 người</t>
+          <t>[ 𝗛𝗔̉𝗜 𝗖𝗛𝗔̂𝗨 ] 𝗣𝗛𝗢̀𝗡𝗚 𝗕𝗔𝗡 𝗖𝗢̂𝗡𝗚 - 𝗙𝗨𝗟𝗟 𝗡𝗢̣̂𝗜 𝗧𝗛𝗔̂́𝗧 - 𝗠𝗔́𝗬 𝗚𝗜𝗔̣̆𝗧 𝗙𝗥𝗘𝗘</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1867,41 +1867,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128109356.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128615654.htm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🔥 NÚI THÀNH TRỐNG SẴN CĂN GÁC LỬNG 🔥</t>
+          <t>Cho thuê phòng trọ (dành cho Nam)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1911,16 +1911,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1933,34 +1933,34 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128568689.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128612931.htm</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ studio đường Trần Nhật Duật</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐH ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5,8 triệu/tháng</t>
+          <t>4,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1977,29 +1977,29 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128564714.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128612419.htm</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Phòng trọ ở Ngũ Hành Sơn</t>
+          <t>Cho thuê phòng đầy đủ tiện nghi,khu ngã ba huế,bến xe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2021,41 +2021,41 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128564248.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128606799.htm</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Phòng trọ 3 sao mới xây tiện nghi,đầy đủ thiết bị Nguyễn Duy Trinh</t>
+          <t>Cho thuê phòng trọ đường Châu Văn Liêm, gần Vũ Trường Phương Đông</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>32 m²</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -2065,29 +2065,29 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127566741.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128605782.htm</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nhượng lại phòng trọ</t>
+          <t>Pass phòng trọ tầng 3 thang bộ ở 1219 Nguyễn Tất Thành  2tr7/1 tháng</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>2,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128559019.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128604416.htm</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🌿 PHÒNG GIÁ SIÊU RẺ - FULL NỘI THẤT – ĐƯỜNG HÒA PHÚ 29, LIÊN CHIỂU 🌿</t>
+          <t>PHÒNG TRỌ CÓ NỘI THẤT CƠ BẢN KHU VỰC HOÀ XUÂN MỚI 100%</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6,3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2143,39 +2143,39 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128555922.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128598855.htm</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Căn hộ Nguyễn Thị Định cho thuê</t>
+          <t>Phòng trọ gác lửng full nội thất ngay Ngã Ba Huế</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2197,34 +2197,34 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128555766.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128222295.htm</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Phòng có ban công thoáng mát - Ngay cầu Rồng siêu tiện nghi</t>
+          <t>PHÒNG SẠCH SẼ CHỈ 4TR TẦNG 2 MẶT TIỀN PHAN TRỌNG TUỆ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2241,34 +2241,34 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128544746.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128593359.htm</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cho thuê phòng giường tầng phòng dorm</t>
+          <t>Phòng trọ cho thuê gần KCN Hòa Cầm</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1 triệu/tháng</t>
+          <t>600000 đ/tháng</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2285,68 +2285,68 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128128560.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128591494.htm</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MỚI XÂY THOÁNG MÁT, BAN CÔNG GẦN ĐH FPT</t>
+          <t>cho thuê giường dorm</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3,1 triệu/tháng</t>
+          <t>1,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>38 m²</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128543234.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126893939.htm</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cho thuê Căn hộ mini 30m2 có 1 phòng ngủ riêng</t>
+          <t>phòng trọ cao cấp</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2,1 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>27 m²</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2363,44 +2363,44 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128296377.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127030626.htm</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kím bạn nữ ở ghép</t>
+          <t>cho thuê phòng full nội thất cao cấp</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1,3 triệu/tháng</t>
+          <t>7,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2417,24 +2417,24 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128537507.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128581505.htm</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tôi cần bán dãy trọ 139m2 ngang 6m Nguyễn Lương Bằng sát ĐH Bách Khoa</t>
+          <t>Phòng trọ hk bắc giá rẻ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3,5 tỷ/tháng</t>
+          <t>1 triệu/tháng</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>139 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128059310.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128581332.htm</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Phòng trọ gác lửng mới hoàn toàn, Gần DH Bách Khoa, Sư Phạm</t>
+          <t>🏡 PHÒNG GIÁ SINH VIÊN – NGUYỄN NHƯ HẠNH, LIÊN CHIỂU 🏡</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2505,14 +2505,14 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127964619.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128575887.htm</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
+          <t>Cho thuê phòng điều hoà ở 3 đến 4 người</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2545,33 +2545,33 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128523320.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128109356.htm</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Phòng Full Nội Thất Khu FPT - Ngũ Hành Sơn</t>
+          <t>🔥 NÚI THÀNH TRỐNG SẴN CĂN GÁC LỬNG 🔥</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2589,38 +2589,38 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128025078.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128568689.htm</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GIÁ CHƯA TỚI 3TR NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
+          <t>Cho thuê căn hộ studio đường Trần Nhật Duật</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>5,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2633,28 +2633,28 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128520533.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128564714.htm</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT ĐỐI DIỆN ĐẠI HỌC FPT ĐI BỘ 3 PHÚT</t>
+          <t>Phòng trọ ở Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2664,11 +2664,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2681,63 +2681,63 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128174992.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128564248.htm</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MỚI 100% GẦN ĐẠI HỌC ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
+          <t>Phòng trọ 3 sao mới xây tiện nghi,đầy đủ thiết bị Nguyễn Duy Trinh</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4,1 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128174964.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127566741.htm</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>🚀 STUDIO RẺ NHẤT KHU HOÀ XUÂN – CHỈ 4.3 TRIỆU! 🌟</t>
+          <t>Nhượng lại phòng trọ</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2747,16 +2747,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2769,29 +2769,29 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128519749.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128559019.htm</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐƯỜNG MINH MẠNG, CẦU TRUNG LƯƠNG</t>
+          <t>🌿 PHÒNG GIÁ SIÊU RẺ - FULL NỘI THẤT – ĐƯỜNG HÒA PHÚ 29, LIÊN CHIỂU 🌿</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3,7 triệu/tháng</t>
+          <t>6,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2800,42 +2800,42 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128519512.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128555922.htm</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Căn hộ dịch vụ mini apartment Hòa Xuân Cẩm Lệ</t>
+          <t>Căn hộ Nguyễn Thị Định cho thuê</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2853,38 +2853,38 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/122592431.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128555766.htm</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>căn duplex gần ĐH FPT, FPT Plaaza 1,2,3, việt hàn</t>
+          <t>Phòng có ban công thoáng mát - Ngay cầu Rồng siêu tiện nghi</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2901,24 +2901,24 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/123621254.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128544746.htm</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Phòng tầng 1 có bếp riêng, phòng ngủ riêng.</t>
+          <t>PHÒNG TRỌ MỚI XÂY THOÁNG MÁT, BAN CÔNG GẦN ĐH FPT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5,2 triệu/tháng</t>
+          <t>3,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2941,23 +2941,23 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128350810.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128543234.htm</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cho thuê Phòng trọ gần bến xe, đầy đủ tiện nghi như căn hộ mini</t>
+          <t>Cho thuê Căn hộ mini 30m2 có 1 phòng ngủ riêng</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3,2 triệu/tháng</t>
+          <t>2,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2985,42 +2985,42 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128511955.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128296377.htm</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ mới xây - Cồn Dầu 19, Hoà Xuân</t>
+          <t>kím bạn nữ ở ghép</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4,8 triệu/tháng</t>
+          <t>1,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3033,63 +3033,63 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128492279.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128537507.htm</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Phòng trọ tiện nghi, trung tâm Ngũ Hành Sơn</t>
+          <t>Tôi cần bán dãy trọ 139m2 ngang 6m Nguyễn Lương Bằng sát ĐH Bách Khoa</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>3,5 tỷ/tháng</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>139 m²</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128189660.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128059310.htm</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cho thuê phòng gác lửng đầy đủ nội thất gần Cầu vượt Ngã Ba Huế</t>
+          <t>Phòng trọ gác lửng mới hoàn toàn, Gần DH Bách Khoa, Sư Phạm</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -3121,34 +3121,34 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128507241.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127964619.htm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đủ nội thất gần Đại học FPT, giá sinh viên</t>
+          <t>CHO THUÊ PHÒNG TRỌ NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3161,28 +3161,28 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127354068.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128523320.htm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>✅️KHAI TRƯƠNG TÒA CĂN HỘ MỚI XÂY,GẦN NGÃ 3 HUẾ, MẸ NHU,CÓ BAN CÔNG ✅️</t>
+          <t>GIÁ CHƯA TỚI 3TR NGAY BẾN XE TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3192,14 +3192,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3209,24 +3209,24 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128504393.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128520533.htm</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cho thuê Căn hộ, phòng trọ từ 17 -25m</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT ĐỐI DIỆN ĐẠI HỌC FPT ĐI BỘ 3 PHÚT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>17 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3253,78 +3253,78 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128341602.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128174992.htm</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗙𝘂𝗹𝗹 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 𝟭𝟬𝟬% 𝗚𝗶𝗮́ 𝗧𝘂̛̀ 𝟮𝗧𝗿𝟯</t>
+          <t>PHÒNG TRỌ MỚI 100% GẦN ĐẠI HỌC ĐÔNG Á, KIẾN TRÚC, NGOẠI NGỮ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2,3 triệu/tháng</t>
+          <t>4,1 triệu/tháng</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128498919.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128174964.htm</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>🚀 STUDIO RẺ NHẤT KHU HOÀ XUÂN – CHỈ 4.3 TRIỆU! 🌟</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3341,73 +3341,73 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128494623.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128519749.htm</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PHÒNG GÁC LỬNG CÓ BAN CÔNG HÒA XUÂN GIÁ CHỈ 4,3 TRIỆU</t>
+          <t>PHÒNG TRỌ ĐẦY ĐỦ NỘI THẤT GẦN ĐƯỜNG MINH MẠNG, CẦU TRUNG LƯƠNG</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4,3 triệu/tháng</t>
+          <t>3,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128493015.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128519512.htm</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>trọ khái tây 2 hoà quý</t>
+          <t>Căn hộ dịch vụ mini apartment Hòa Xuân Cẩm Lệ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3416,37 +3416,37 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128489193.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/122592431.htm</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN STUDIO - NGŨ HÀNH SƠN</t>
+          <t>căn duplex gần ĐH FPT, FPT Plaaza 1,2,3, việt hàn</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6,2 triệu/tháng</t>
+          <t>3,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3466,36 +3466,36 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128488165.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/123621254.htm</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Phòng trọ tại 8x Nguyễn Lộ Trạch, 4,5 triệu, 20m2, view đẹp</t>
+          <t>Phòng tầng 1 có bếp riêng, phòng ngủ riêng.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>5,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3517,14 +3517,14 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128485470.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128350810.htm</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PASS CĂN HỘ ĐƯỜNG TRƯƠNG QUANG GIAO-CẨM LỆ THÁNG 11 CÓ THỂ CHUYỂN VÀO</t>
+          <t>Cho thuê căn hộ mới xây - Cồn Dầu 19, Hoà Xuân</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3544,51 +3544,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128479841.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128492279.htm</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG GÁC LỬNG CÓ NỘI THẤT NGAY BẾN XE ĐẦY ĐỦ TIỆN NGHI</t>
+          <t>Phòng trọ tiện nghi, trung tâm Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3598,31 +3598,31 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128472157.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128189660.htm</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cho thuê căn gác lửng ngay ngã ba Huế</t>
+          <t>Cho thuê phòng gác lửng đầy đủ nội thất gần Cầu vượt Ngã Ba Huế</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3649,34 +3649,34 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128470639.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128507241.htm</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tìm bạn ở ghép ( nam) ở lâu dài càng tốt</t>
+          <t>Cho thuê phòng đủ nội thất gần Đại học FPT, giá sinh viên</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1,25 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3686,75 +3686,75 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128470096.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127354068.htm</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🌿 Phòng full nội thất khu FPT City – Ngũ Hành Sơn, Đà Nẵng 🌿</t>
+          <t>✅️KHAI TRƯƠNG TÒA CĂN HỘ MỚI XÂY,GẦN NGÃ 3 HUẾ, MẸ NHU,CÓ BAN CÔNG ✅️</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128469665.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128504393.htm</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cho thuê phòng đầy đủ nội thất ngay bãi tắm Sơn Thủy</t>
+          <t>Cho thuê Căn hộ, phòng trọ từ 17 -25m</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>17 m²</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3781,82 +3781,82 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128106151.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128341602.htm</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>phòng trọ khái tây 2 hoà quý Đà Nẵng</t>
+          <t>𝗞𝗵𝗮𝗶 𝗧𝗿𝘂̛𝗼̛𝗻𝗴 𝗣𝗵𝗼̀𝗻𝗴 𝗙𝘂𝗹𝗹 𝗡𝗼̣̂𝗶 𝗧𝗵𝗮̂́𝘁 𝗠𝗼̛́𝗶 𝟭𝟬𝟬% 𝗚𝗶𝗮́ 𝗧𝘂̛̀ 𝟮𝗧𝗿𝟯</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>2,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/126678097.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128498919.htm</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>phòng trung tâm đầy đủ tiện nghi, Nguyễn Văn Linh gần sân bay</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3865,33 +3865,33 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128463693.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128494623.htm</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Phòng trọ yên khê 1</t>
+          <t>PHÒNG GÁC LỬNG CÓ BAN CÔNG HÒA XUÂN GIÁ CHỈ 4,3 TRIỆU</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2,6 triệu/tháng</t>
+          <t>4,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3913,161 +3913,161 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128456987.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128493015.htm</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Khai trương phòng trọ có gác lững mới, có điều hoà, nóng lạnh, tủ bếp</t>
+          <t>trọ khái tây 2 hoà quý</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>15 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128450627.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128489193.htm</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tìm nữ ở ghép phòng ban công trong nhà nguyên căn</t>
+          <t>CHO THUÊ CĂN STUDIO - NGŨ HÀNH SƠN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>6,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128445761.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128488165.htm</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ cao cấp giá sinh viên</t>
+          <t>Phòng trọ tại 8x Nguyễn Lộ Trạch, 4,5 triệu, 20m2, view đẹp</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5,5 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436792.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128485470.htm</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>🌿 Phòng trọ siêu thoáng Hòa Phú 29 – Liên Chiểu, Đà Nẵng 🌿</t>
+          <t>PASS CĂN HỘ ĐƯỜNG TRƯƠNG QUANG GIAO-CẨM LỆ THÁNG 11 CÓ THỂ CHUYỂN VÀO</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>4,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4079,29 +4079,29 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436712.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128479841.htm</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>✨ Phòng trọ full nội thất Hòa Phú 29 – Liên Chiểu, Đà Nẵng ✨</t>
+          <t>CHO THUÊ PHÒNG GÁC LỬNG CÓ NỘI THẤT NGAY BẾN XE ĐẦY ĐỦ TIỆN NGHI</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4126,31 +4126,31 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436652.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128472157.htm</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>✨ Phòng trọ full nội thất Hòa Phú 29 - có ban công – Liên Chiểu✨</t>
+          <t>Cho thuê căn gác lửng ngay ngã ba Huế</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4160,41 +4160,41 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128436387.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128470639.htm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ điều hoà  21/10/2025 dọn vào ở ngay</t>
+          <t>Tìm bạn ở ghép ( nam) ở lâu dài càng tốt</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>1,25 triệu/tháng</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>22 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4221,29 +4221,29 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127450726.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128470096.htm</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>phòng cho thuê trọ</t>
+          <t>🌿 Phòng full nội thất khu FPT City – Ngũ Hành Sơn, Đà Nẵng 🌿</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2,9 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4265,24 +4265,24 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128432453.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128469665.htm</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pass phòng ạ, KĐT FPT, ở được 4 người, cho nuôi pet</t>
+          <t>Cho thuê phòng đầy đủ nội thất ngay bãi tắm Sơn Thủy</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4292,11 +4292,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -4309,29 +4309,29 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128430121.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128106151.htm</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cho Thuê Phòng Trọ gác lững đường Hoàng Minh Thảo, bên cạnh ĐH Duy Tân</t>
+          <t>phòng trọ khái tây 2 hoà quý Đà Nẵng</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4340,7 +4340,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4353,29 +4353,29 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128423703.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/126678097.htm</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cần nữ ở ghép phòng đầy đủ tiện nghi tại Hoà Minh, Liên Chiểu giá tốt</t>
+          <t>phòng trung tâm đầy đủ tiện nghi, Nguyễn Văn Linh gần sân bay</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4384,42 +4384,42 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128420144.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128463693.htm</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ giá tốt gần ĐH Đông Á, Kiến Trúc</t>
+          <t>Phòng trọ yên khê 1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4434,36 +4434,36 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128419135.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128456987.htm</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tôi cần bán phòng trọ 168m2, Thanh Vinh12 , quận Liên Chiểu, Đà Nẵng</t>
+          <t>Khai trương phòng trọ có gác lững mới, có điều hoà, nóng lạnh, tủ bếp</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4,4 tỷ/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>168 m²</t>
+          <t>15 m²</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4481,82 +4481,82 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128404258.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128450627.htm</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Phòng trọ mới xây Núi Thành ngay quảng trường 2/9 từ 3tr5 đến 4tr2</t>
+          <t>Tìm nữ ở ghép phòng ban công trong nhà nguyên căn</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F93" t="n">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128403387.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128445761.htm</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Em cần tìm trọ khu vực cẩm lệ Đà Nẵng ạ ai có liên hê em liền nha</t>
+          <t>Cho thuê căn hộ cao cấp giá sinh viên</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>5,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4573,63 +4573,63 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128402676.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436792.htm</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ</t>
+          <t>🌿 Phòng trọ siêu thoáng Hòa Phú 29 – Liên Chiểu, Đà Nẵng 🌿</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2,8 triệu/tháng</t>
+          <t>6 triệu/tháng</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128398809.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436712.htm</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PHÒNG TRỌ MẶT TIỀN  ,GIÁ RẺ HÒA XUÂN  CẨM LỆ ĐN .</t>
+          <t>✨ Phòng trọ full nội thất Hòa Phú 29 – Liên Chiểu, Đà Nẵng ✨</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4639,16 +4639,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4661,24 +4661,24 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128392633.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436652.htm</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Chính chủ cho cho thuê phòng căn hộ</t>
+          <t>✨ Phòng trọ full nội thất Hòa Phú 29 - có ban công – Liên Chiểu✨</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3,7 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -4698,80 +4698,80 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128310448.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128436387.htm</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Trọ Đà Nẵng Full nội thất- gần đại học kiến trúc</t>
+          <t>Cho thuê phòng trọ điều hoà  21/10/2025 dọn vào ở ngay</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4,49 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>22 m²</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128382912.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127450726.htm</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cho thuê căn hộ mini đường Bùi Vịnh, Cẩm Lệ, Đà Nẵng</t>
+          <t>phòng cho thuê trọ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2,9 triệu/tháng</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4783,29 +4783,29 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128381967.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128432453.htm</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3 NAM 2007 TÌM 1 BẠN Ở GHÉP CÁCH ĐHKT 1,2KM</t>
+          <t>Pass phòng ạ, KĐT FPT, ở được 4 người, cho nuôi pet</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1,6 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4837,85 +4837,85 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128377616.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128430121.htm</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>tìm người ở ghép cùng</t>
+          <t>Cho Thuê Phòng Trọ gác lững đường Hoàng Minh Thảo, bên cạnh ĐH Duy Tân</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1,3 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>10 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128367431.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128423703.htm</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHO THUÊ NHÀ RIÊNG BIỆT MẶT TIỀN 8M ĐƯỜNG 5m5 ( đối diện trường học )</t>
+          <t>Cần nữ ở ghép phòng đầy đủ tiện nghi tại Hoà Minh, Liên Chiểu giá tốt</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4925,29 +4925,29 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128365157.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128420144.htm</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>🏡 HÒA AN 26 – 4 PHÒNG TRỌ – DÒNG TIỀN 7 TRIỆU/THÁNG 💰</t>
+          <t>Cho thuê phòng trọ giá tốt gần ĐH Đông Á, Kiến Trúc</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3,15 tỷ/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>83 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4965,28 +4965,28 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128339208.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128419135.htm</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>🌿✨ CHO THUÊ PHÒNG TRỌ / CĂN HỘ ✨🌿</t>
+          <t>Tôi cần bán phòng trọ 168m2, Thanh Vinh12 , quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>4,4 tỷ/tháng</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>13 m²</t>
+          <t>168 m²</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5006,31 +5006,31 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128334166.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128404258.htm</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>🇻🇳CHO THUÊ 2 PHÒNG TRONG NHÀ NGUYÊN CĂN RỘNG THOÁNG</t>
+          <t>Phòng trọ mới xây Núi Thành ngay quảng trường 2/9 từ 3tr5 đến 4tr2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5040,51 +5040,51 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128332786.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128403387.htm</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ MINI CAO CẤP – NGŨ HÀNH SƠN, ĐÀ NẴNG 🌟</t>
+          <t>Em cần tìm trọ khu vực cẩm lệ Đà Nẵng ạ ai có liên hê em liền nha</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5097,42 +5097,42 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127596982.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128402676.htm</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CHÍNH CHỦ CHO THUÊ PHÒNG – NGAY TRUNG TÂM ĐÀ NẴNG</t>
+          <t>CHO THUÊ PHÒNG TRỌ</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>4,2 triệu/tháng</t>
+          <t>2,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -5141,28 +5141,28 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128269219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128398809.htm</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>cho thuê căn hộ mini 1 phòng ngủ</t>
+          <t>PHÒNG TRỌ MẶT TIỀN  ,GIÁ RẺ HÒA XUÂN  CẨM LỆ ĐN .</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6,5 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5172,55 +5172,55 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127610219.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128392633.htm</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cho thuê toà căn hộ 4 tầng 7 phòng đường Đoàn Khuê</t>
+          <t>Chính chủ cho cho thuê phòng căn hộ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>28 triệu/tháng</t>
+          <t>3,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -5233,38 +5233,38 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128235142.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128310448.htm</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>cho thuê nhà nguyên căn</t>
+          <t>Trọ Đà Nẵng Full nội thất- gần đại học kiến trúc</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>8,5 triệu/tháng</t>
+          <t>4,49 triệu/tháng</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>104 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -5273,42 +5273,42 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128230872.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128382912.htm</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Cho thuê nhà khu vực quang châu hòa phước</t>
+          <t>Cho thuê căn hộ mini đường Bùi Vịnh, Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1,7 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>27 m²</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -5317,33 +5317,33 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128228939.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128381967.htm</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cần cho thê phòng trọ giá rẻ</t>
+          <t>3 NAM 2007 TÌM 1 BẠN Ở GHÉP CÁCH ĐHKT 1,2KM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>1,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -5365,85 +5365,85 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128227046.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128377616.htm</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Chính chủ cho thuê phòng trọ trên tầng</t>
+          <t>tìm người ở ghép cùng</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>10 m²</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128223243.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128367431.htm</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Phòng trọ đường Hà Bổng</t>
+          <t>CHO THUÊ NHÀ RIÊNG BIỆT MẶT TIỀN 8M ĐƯỜNG 5m5 ( đối diện trường học )</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5453,24 +5453,24 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128217671.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128365157.htm</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GÁC LỬNG Ở ĐƯỢC 3 BẠN - ĐƯỜNG TRẦN NGỌC SƯƠNG - GẦN ĐÔNG Á KIẾN TRÚC</t>
+          <t>🏡 HÒA AN 26 – 4 PHÒNG TRỌ – DÒNG TIỀN 7 TRIỆU/THÁNG 💰</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>3,15 tỷ/tháng</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>83 m²</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5480,51 +5480,51 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128189959.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128339208.htm</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Phòng Trọ Ngay Mặt Đường</t>
+          <t>🌿✨ CHO THUÊ PHÒNG TRỌ / CĂN HỘ ✨🌿</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>13 m²</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5534,48 +5534,48 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128177160.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128334166.htm</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Phòng trọ/ Căn hộ</t>
+          <t>🇻🇳CHO THUÊ 2 PHÒNG TRONG NHÀ NGUYÊN CĂN RỘNG THOÁNG</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5585,82 +5585,82 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128173132.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128332786.htm</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cho thuê 3 phòng 24m2 tầng 2&amp;3</t>
+          <t>CHO THUÊ CĂN HỘ MINI CAO CẤP – NGŨ HÀNH SƠN, ĐÀ NẴNG 🌟</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3,3 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128172121.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127596982.htm</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Trần Văn Thành - Ngũ Hành Sơn - Đà Nẵng</t>
+          <t>CHÍNH CHỦ CHO THUÊ PHÒNG – NGAY TRUNG TÂM ĐÀ NẴNG</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2,4 triệu/tháng</t>
+          <t>4,2 triệu/tháng</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5669,23 +5669,23 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128154852.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128269219.htm</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cho nữ sinh viên thuê trọ</t>
+          <t>cho thuê căn hộ mini 1 phòng ngủ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>6,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5695,19 +5695,19 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F120" t="n">
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5717,38 +5717,38 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128098285.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127610219.htm</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Căn hộ studio cầu rồng</t>
+          <t>Cho thuê toà căn hộ 4 tầng 7 phòng đường Đoàn Khuê</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5,5 triệu/tháng</t>
+          <t>28 triệu/tháng</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>28 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5761,78 +5761,78 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128082131.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128235142.htm</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ hòa khánh đà nẵng</t>
+          <t>cho thuê nhà nguyên căn</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>8,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>104 m²</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128062696.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128230872.htm</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>em cần tìm trọ gần đại học đông á ạ, 1 người ở nữ</t>
+          <t>Cho thuê nhà khu vực quang châu hòa phước</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>1,7 triệu/tháng</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -5849,34 +5849,34 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128057713.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128228939.htm</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cho thuê trọ gần ĐH Kiến trúc, Đông Á,  Đại việt, LotterMart</t>
+          <t>Cần cho thê phòng trọ giá rẻ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>14 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -5889,77 +5889,77 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128044952.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128227046.htm</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Phòng trọ 25m2 gần Bệnh viện Phụ sản - Nhi Đà Nẵng</t>
+          <t>Chính chủ cho thuê phòng trọ trên tầng</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128043795.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128223243.htm</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Phòng rẻ nhất Ngũ Hành Sơn</t>
+          <t>Phòng trọ đường Hà Bổng</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3,8 triệu/tháng</t>
+          <t>3,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5968,54 +5968,54 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/128016776.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128217671.htm</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Combo 2 phòng ngủ tầng 3 nhà MT số 299 Lê Duẩn, P. Tân Chính, Đà Nẵng</t>
+          <t>GÁC LỬNG Ở ĐƯỢC 3 BẠN - ĐƯỜNG TRẦN NGỌC SƯƠNG - GẦN ĐÔNG Á KIẾN TRÚC</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F127" t="n">
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -6025,14 +6025,14 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127994757.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128189959.htm</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Phòng mới xây xong nội thất full mới ***</t>
+          <t>Phòng Trọ Ngay Mặt Đường</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6047,12 +6047,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6069,29 +6069,29 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127976873.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128177160.htm</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>cần thuê nhà</t>
+          <t>Phòng trọ/ Căn hộ</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6100,10 +6100,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -6113,29 +6113,29 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127973425.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128173132.htm</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cho Thuê Căn Hộ Duplex</t>
+          <t>Cho thuê 3 phòng 24m2 tầng 2&amp;3</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3,6 triệu/tháng</t>
+          <t>3,3 triệu/tháng</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6144,37 +6144,37 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127919681.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128172121.htm</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Phòng 2 giường gần Châu Thị Vĩnh Tế có máy chiếu, bếp riêng</t>
+          <t>Cho thuê phòng trọ đường Trần Văn Thành - Ngũ Hành Sơn - Đà Nẵng</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>2,4 triệu/tháng</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>35 m²</t>
+          <t>18 m²</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6184,11 +6184,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -6197,33 +6197,33 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127951336.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128154852.htm</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SIÊU PHẨM GÁC LỬNG – HÒA PHÚ 24, LIÊN CHIỂU</t>
+          <t>Cho nữ sinh viên thuê trọ</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6245,38 +6245,38 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127928163.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128098285.htm</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trong nhà</t>
+          <t>Căn hộ studio cầu rồng</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1,5 triệu/tháng</t>
+          <t>5,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>14 m²</t>
+          <t>28 m²</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất cao cấp</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -6285,28 +6285,28 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127901711.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128082131.htm</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cho thuê nhà 80m2 gần công an phường Hoà Khánh</t>
+          <t>Cho thuê phòng trọ hòa khánh đà nẵng</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6316,36 +6316,36 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127855366.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128062696.htm</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Cho Thuê trọ phòng khách sạn</t>
+          <t>em cần tìm trọ gần đại học đông á ạ, 1 người ở nữ</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>1,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6355,16 +6355,16 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -6377,38 +6377,38 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127808442.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128057713.htm</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cho thuê phòng ngay trung tâm TP, sau lưng Đại Học Duy Tân</t>
+          <t>Cho thuê trọ gần ĐH Kiến trúc, Đông Á,  Đại việt, LotterMart</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>4,15 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>24 m²</t>
+          <t>14 m²</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Hải Châu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>Nhà trống</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -6421,24 +6421,24 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127805338.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128044952.htm</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CHO THUÊ CĂN HỘ TẠI ĐA MẶN ĐÔNG 2</t>
+          <t>Phòng trọ 25m2 gần Bệnh viện Phụ sản - Nhi Đà Nẵng</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6448,11 +6448,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -6465,29 +6465,29 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127764329.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128043795.htm</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ khu nhà 3 tầng khong chung chủ</t>
+          <t>Phòng rẻ nhất Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>3,8 triệu/tháng</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6496,91 +6496,91 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127724483.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/128016776.htm</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Dịch vụ Quản Lý Nhà Trọ – Căn Hộ Cho Thuê tại Ngũ Hành Sơn</t>
+          <t>Combo 2 phòng ngủ tầng 3 nhà MT số 299 Lê Duẩn, P. Tân Chính, Đà Nẵng</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Nội thất cao cấp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127719513.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127994757.htm</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>phòng trọ hà bổng</t>
+          <t>Phòng mới xây xong nội thất full mới ***</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -6597,34 +6597,34 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127707666.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127976873.htm</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nhà trọ cho sinh viên hoặc gia đình</t>
+          <t>cần thuê nhà</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>400000 đ/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -6634,41 +6634,41 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127610942.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127973425.htm</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Nhượng phòng trọ</t>
+          <t>Cho Thuê Căn Hộ Duplex</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2,5 triệu/tháng</t>
+          <t>3,6 triệu/tháng</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -6685,24 +6685,24 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127689867.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127919681.htm</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>🏡 CĂN STUDIO MỚI CẢI TẠO – FULL NỘI THẤT – NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
+          <t>Phòng 2 giường gần Châu Thị Vĩnh Tế có máy chiếu, bếp riêng</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>5 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6722,45 +6722,45 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127624334.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127951336.htm</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>SIÊU PHẨM GÁC LỬNG – HÒA PHÚ 24, LIÊN CHIỂU</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>4,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>25 m²</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quận Thanh Khê, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -6773,73 +6773,73 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127598181.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127928163.htm</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>phòng trọ 50m2 tại k94 nguyễn công trứ, p. an hải</t>
+          <t>Cho thuê phòng trong nhà</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>6 triệu/tháng</t>
+          <t>1,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>14 m²</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Nội thất đầy đủ</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127547468.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127901711.htm</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ gần trường đại học kinh tế</t>
+          <t>Cho thuê nhà 80m2 gần công an phường Hoà Khánh</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>3,5 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6861,38 +6861,38 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127545749.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127855366.htm</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>cho thuê phòng chính chủ gần bách khoa cao đẳng kte kế hoạch,sư phạm</t>
+          <t>Cho Thuê trọ phòng khách sạn</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1,4 triệu/tháng</t>
+          <t>4 triệu/tháng</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Quận Liên Chiểu, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -6901,42 +6901,42 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127474334.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127808442.htm</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>Cho thuê phòng ngay trung tâm TP, sau lưng Đại Học Duy Tân</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>4,15 triệu/tháng</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>20 m²</t>
+          <t>24 m²</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -6945,42 +6945,42 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127523752.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127805338.htm</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>cho thuê phòng trọ 18m2( chứ kể gác lững) đường Tống Phước Phổ</t>
+          <t>CHO THUÊ CĂN HỘ TẠI ĐA MẶN ĐÔNG 2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1,9 triệu/tháng</t>
+          <t>5 triệu/tháng</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>30 m²</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quận Hải Châu, Đà Nẵng</t>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>Nội thất đầy đủ</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -6993,24 +6993,24 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127502036.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127764329.htm</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ đường Hà Bổng, Q. Sơn Trà</t>
+          <t>Cho thuê phòng trọ khu nhà 3 tầng khong chung chủ</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3 triệu/tháng</t>
+          <t>2,5 triệu/tháng</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>25 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -7037,24 +7037,24 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127448559.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127724483.htm</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Cho thuê phòng trọ</t>
+          <t>Dịch vụ Quản Lý Nhà Trọ – Căn Hộ Cho Thuê tại Ngũ Hành Sơn</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>4 triệu/tháng</t>
+          <t>2 triệu/tháng</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>27 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7081,34 +7081,34 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127421564.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127719513.htm</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CHO THUÊ PHÒNG TRỌ HOÀ PHƯỚC HOÀ VANG, TP ĐÀ NẴNG</t>
+          <t>phòng trọ hà bổng</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1,8 triệu/tháng</t>
+          <t>3 triệu/tháng</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>18 m²</t>
+          <t>20 m²</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Huyện Hòa Vang, Đà Nẵng</t>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Nhà trống</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7118,36 +7118,36 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127406115.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127707666.htm</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>cho thuê tháng</t>
+          <t>Nhà trọ cho sinh viên hoặc gia đình</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>4,5 triệu/tháng</t>
+          <t>400000 đ/tháng</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>30 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quận Sơn Trà, Đà Nẵng</t>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7162,56 +7162,584 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>https://www.nhatot.com/cho-thue-phong-tro/127403418.htm</t>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127610942.htm</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>Nhượng phòng trọ</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2,5 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>40 m²</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Nhà trống</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127689867.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>🏡 CĂN STUDIO MỚI CẢI TẠO – FULL NỘI THẤT – NGŨ HÀNH SƠN, ĐÀ NẴNG</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>5 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>30 m²</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127624334.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Cho thuê phòng trọ</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>3 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>20 m²</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Quận Thanh Khê, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127598181.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>phòng trọ 50m2 tại k94 nguyễn công trứ, p. an hải</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>6 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127547468.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Cho thuê phòng trọ gần trường đại học kinh tế</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>3,5 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>40 m²</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Nhà trống</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127545749.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>cho thuê phòng chính chủ gần bách khoa cao đẳng kte kế hoạch,sư phạm</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1,4 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>18 m²</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Quận Liên Chiểu, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Nhà trống</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127474334.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Cho thuê phòng trọ</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1,8 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>20 m²</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Quận Cẩm Lệ, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Nhà trống</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127523752.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>cho thuê phòng trọ 18m2( chứ kể gác lững) đường Tống Phước Phổ</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1,9 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>18 m²</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Quận Hải Châu, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Nhà trống</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127502036.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Cho thuê phòng trọ đường Hà Bổng, Q. Sơn Trà</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>3 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>25 m²</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127448559.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Cho thuê phòng trọ</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>4 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>27 m²</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Quận Ngũ Hành Sơn, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Nội thất cao cấp</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127421564.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>CHO THUÊ PHÒNG TRỌ HOÀ PHƯỚC HOÀ VANG, TP ĐÀ NẴNG</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1,8 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>18 m²</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Huyện Hòa Vang, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Nhà trống</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127406115.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>cho thuê tháng</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>4,5 triệu/tháng</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>30 m²</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>https://www.nhatot.com/cho-thue-phong-tro/127403418.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
           <t>Phòng trọ sinh viên gần ĐH Ngoại Ngữ CS Lương Nhữ Hộc</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>4,5 triệu/tháng</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>20 m²</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Quận Cẩm Lệ, Đà Nẵng</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Nội thất đầy đủ</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Nội thất đầy đủ</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>https://www.nhatot.com/cho-thue-phong-tro/127388798.htm</t>
         </is>
